--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>STATS</t>
   </si>
@@ -148,13 +148,70 @@
   </si>
   <si>
     <t>[[Increase power by 1]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Reduce range by 1]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Blindness]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[Vision]]</t>
+  </si>
+  <si>
+    <t>[[Increase range by 1]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>[[Blood Mark]]</t>
+  </si>
+  <si>
+    <t>[[Increase the next ''Cursed Arrow'' skill damage]]                                [[Increase the ''Poison Arrow'' poison duration]]</t>
+  </si>
+  <si>
+    <t>[[Poison]]</t>
+  </si>
+  <si>
+    <t>[[Damage: 1 dark]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Speed]]</t>
+  </si>
+  <si>
+    <t>[[Slowness]]</t>
+  </si>
+  <si>
+    <t>[[Stimulated]]</t>
+  </si>
+  <si>
+    <t>[[Laziness]]</t>
+  </si>
+  <si>
+    <t>[[Increase AP by 1]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Reduce AP by 1]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Increase MP by 1]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Reduce MP by 1]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Loneliness]]</t>
+  </si>
+  <si>
+    <t>[[Can't summon playable summoning]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +252,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -330,7 +400,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -340,17 +412,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,28 +479,98 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,11 +995,11 @@
       <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -865,17 +1007,17 @@
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="20">
-        <v>100</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>28</v>
+      <c r="F7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="34">
+        <v>1</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -886,20 +1028,12 @@
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
@@ -907,18 +1041,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="7">
-        <v>100</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -928,18 +1054,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="26">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -949,18 +1067,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="27">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -970,12 +1080,20 @@
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="39">
+        <v>10</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -983,10 +1101,18 @@
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="F13" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="42">
+        <v>10</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -996,10 +1122,18 @@
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1009,10 +1143,18 @@
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="F15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1022,32 +1164,56 @@
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="46">
+        <v>10</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="43">
+        <v>100</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="F18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="28">
+        <v>100</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1055,21 +1221,37 @@
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="39">
+        <v>100</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="F20" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="42">
+        <v>100</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1077,32 +1259,56 @@
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="13"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="24">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="F23" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="51">
+        <v>200</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1110,10 +1316,18 @@
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="F24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1132,10 +1346,10 @@
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1187,21 +1401,101 @@
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="6"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="6"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="7"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>STATS</t>
   </si>
@@ -205,6 +205,30 @@
   </si>
   <si>
     <t>[[Can't summon playable summoning]]</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>[[Protected Feet]]</t>
+  </si>
+  <si>
+    <t>[[Protected from glyph and field effect]]</t>
+  </si>
+  <si>
+    <t>[[Cyanide]]</t>
+  </si>
+  <si>
+    <t>Allow some of the Ninja skills to poison his target.</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>[[Protection Layer]]</t>
+  </si>
+  <si>
+    <t>[[Reduces to 0 damage taken from distance]]                            Each damage reduced to 0 decrease the level by 1.</t>
   </si>
 </sst>
 </file>
@@ -422,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,18 +539,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,6 +583,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,7 +871,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -1007,16 +1022,16 @@
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="28">
         <v>1</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="48" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1028,10 +1043,18 @@
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1080,16 +1103,16 @@
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="35">
         <v>10</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1101,16 +1124,16 @@
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="38">
         <v>10</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1164,16 +1187,16 @@
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="42">
         <v>10</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1183,22 +1206,24 @@
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="39">
         <v>100</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -1221,16 +1246,16 @@
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="35">
         <v>100</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1240,16 +1265,16 @@
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="38">
         <v>100</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1297,16 +1322,16 @@
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="47">
         <v>200</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1346,21 +1371,37 @@
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="31">
+        <v>1</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="F27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1421,7 +1462,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="13"/>
       <c r="C33" s="6"/>
-      <c r="E33" s="36"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="13"/>
       <c r="G33" s="16"/>
       <c r="H33" s="6"/>
@@ -1431,7 +1472,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="13"/>
       <c r="C34" s="6"/>
-      <c r="E34" s="36"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="29"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31"/>
@@ -1441,7 +1482,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
-      <c r="E35" s="36"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="13"/>
       <c r="G35" s="16"/>
       <c r="H35" s="6"/>
@@ -1451,7 +1492,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="13"/>
       <c r="C36" s="6"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="13"/>
       <c r="G36" s="16"/>
       <c r="H36" s="6"/>
@@ -1461,7 +1502,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
-      <c r="E37" s="36"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="13"/>
       <c r="G37" s="16"/>
       <c r="H37" s="6"/>
@@ -1471,7 +1512,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="13"/>
       <c r="G38" s="16"/>
       <c r="H38" s="6"/>
@@ -1481,7 +1522,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="13"/>
       <c r="C39" s="6"/>
-      <c r="E39" s="36"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31"/>
@@ -1491,7 +1532,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="14"/>
       <c r="C40" s="7"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="14"/>
       <c r="G40" s="17"/>
       <c r="H40" s="7"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>STATS</t>
   </si>
@@ -105,9 +105,6 @@
     <t>[[Weak]]</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>[[Increase the next ''Liquid Kick'' skill damage by 20%]]                  ( * effect levels )</t>
   </si>
   <si>
@@ -229,6 +226,42 @@
   </si>
   <si>
     <t>[[Reduces to 0 damage taken from distance]]                            Each damage reduced to 0 decrease the level by 1.</t>
+  </si>
+  <si>
+    <t>[[Invulnerable]]</t>
+  </si>
+  <si>
+    <t>Can't loose HP</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>[[Backfire]]</t>
+  </si>
+  <si>
+    <t>[[Return 1% of the damage taken to the attacker]]                                 ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Binding]]</t>
+  </si>
+  <si>
+    <t>Prevent movement caused by skills</t>
+  </si>
+  <si>
+    <t>[[Will Of Destruction]]</t>
+  </si>
+  <si>
+    <t>Prevent the usage of some skills of the Guardian.</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>[[Over Power]]</t>
+  </si>
+  <si>
+    <t>[[Increase final damage by 1%]]    ( * effect levels )</t>
   </si>
 </sst>
 </file>
@@ -322,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -442,11 +475,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,9 +556,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,6 +627,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -942,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -963,7 +1040,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>
@@ -984,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -1005,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1022,20 +1099,20 @@
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>1</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>15</v>
@@ -1043,20 +1120,20 @@
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H8" s="27">
+        <v>1</v>
+      </c>
+      <c r="I8" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
@@ -1064,10 +1141,18 @@
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="F9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1077,10 +1162,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1103,17 +1188,17 @@
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="35">
+      <c r="F12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="34">
         <v>10</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>28</v>
+      <c r="I12" s="34" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,17 +1209,17 @@
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="38">
+      <c r="F13" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="37">
         <v>10</v>
       </c>
-      <c r="I13" s="39" t="s">
-        <v>28</v>
+      <c r="I13" s="38" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1146,16 +1231,16 @@
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1166,20 +1251,20 @@
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="F15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="6">
         <v>10</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
         <v>9</v>
@@ -1187,95 +1272,95 @@
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="42">
-        <v>10</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="39">
-        <v>100</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>28</v>
+      <c r="G17" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="41">
+        <v>10</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="28">
+      <c r="F18" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="38">
         <v>100</v>
       </c>
-      <c r="I18" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="13"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="35">
+      <c r="F19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="27">
         <v>100</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="38">
-        <v>100</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>28</v>
+      <c r="F20" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="55">
+        <v>1</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1284,55 +1369,55 @@
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="23">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="59">
+        <v>100</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="13"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="24">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="55">
+        <v>100</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="47">
-        <v>200</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>28</v>
+      <c r="F23" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="59">
+        <v>3</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1341,29 +1426,37 @@
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="F24" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="55">
         <v>1</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="13"/>
       <c r="C25" s="6"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="F25" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="37">
+        <v>100</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1371,59 +1464,75 @@
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="31">
-        <v>1</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="50">
+        <v>100</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="13" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="6">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="H27" s="52">
+        <v>1000</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="13"/>
       <c r="C28" s="6"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="13"/>
       <c r="C29" s="6"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="F29" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="46">
+        <v>100</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1431,10 +1540,18 @@
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="F30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1442,10 +1559,10 @@
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1462,27 +1579,27 @@
       <c r="A33" s="1"/>
       <c r="B33" s="13"/>
       <c r="C33" s="6"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="13"/>
       <c r="C34" s="6"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
-      <c r="E35" s="32"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="13"/>
       <c r="G35" s="16"/>
       <c r="H35" s="6"/>
@@ -1492,7 +1609,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="13"/>
       <c r="C36" s="6"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="13"/>
       <c r="G36" s="16"/>
       <c r="H36" s="6"/>
@@ -1502,7 +1619,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
-      <c r="E37" s="32"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="13"/>
       <c r="G37" s="16"/>
       <c r="H37" s="6"/>
@@ -1512,27 +1629,27 @@
       <c r="A38" s="1"/>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="13"/>
       <c r="C39" s="6"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="14"/>
       <c r="C40" s="7"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="14"/>
       <c r="G40" s="17"/>
       <c r="H40" s="7"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -30,9 +30,6 @@
     <t>[[Punch]]</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -105,15 +102,6 @@
     <t>[[Weak]]</t>
   </si>
   <si>
-    <t>[[Increase the next ''Liquid Kick'' skill damage by 20%]]                  ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Increase the next ''Iron Punch'' skill damage by 20%]]                  ( * effect levels )</t>
-  </si>
-  <si>
-    <t>Increase the damage taken by the ''Precision Strike'' skill.</t>
-  </si>
-  <si>
     <t>[[Vulnerable]]</t>
   </si>
   <si>
@@ -126,12 +114,6 @@
     <t xml:space="preserve">       [[Reduce resistance by 1%]]    ( * effect levels )</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[Increase HP by 30%]]                                                                                [[Increase resistance by 15%]]</t>
-  </si>
-  <si>
-    <t>[[Increase power by 200]]                                                                            [[Increase AP by 1]]</t>
-  </si>
-  <si>
     <t>[[Increase HP by 1%]]    ( * effect levels )</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>[[Blood Mark]]</t>
   </si>
   <si>
-    <t>[[Increase the next ''Cursed Arrow'' skill damage]]                                [[Increase the ''Poison Arrow'' poison duration]]</t>
-  </si>
-  <si>
     <t>[[Poison]]</t>
   </si>
   <si>
@@ -201,9 +180,6 @@
     <t>[[Loneliness]]</t>
   </si>
   <si>
-    <t>[[Can't summon playable summoning]]</t>
-  </si>
-  <si>
     <t>Will</t>
   </si>
   <si>
@@ -216,9 +192,6 @@
     <t>[[Cyanide]]</t>
   </si>
   <si>
-    <t>Allow some of the Ninja skills to poison his target.</t>
-  </si>
-  <si>
     <t>Ninja</t>
   </si>
   <si>
@@ -231,9 +204,6 @@
     <t>[[Invulnerable]]</t>
   </si>
   <si>
-    <t>Can't loose HP</t>
-  </si>
-  <si>
     <t>Any</t>
   </si>
   <si>
@@ -252,9 +222,6 @@
     <t>[[Will Of Destruction]]</t>
   </si>
   <si>
-    <t>Prevent the usage of some skills of the Guardian.</t>
-  </si>
-  <si>
     <t>Guardian</t>
   </si>
   <si>
@@ -262,6 +229,39 @@
   </si>
   <si>
     <t>[[Increase final damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>Prevent the usage of some skills of the Guardian.                       (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Increase the next ''Cursed Arrow'' skill damage]]                                [[Increase the ''Poison Arrow'' poison duration]]                             (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Increase the damage taken by the ''Precision Strike'' skill.            (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Increase power by 200]]                                                                            [[Increase AP by 1]]                                                                                       (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[Increase HP by 30%]]                                                                                [[Increase resistance by 15%]]                                                                                      (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Allow some of the Ninja skills to poison his target.                                       (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Can't loose HP                                                                                                        (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Can't summon playable summoning]]                                               (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Increase the next ''Iron Punch'' skill damage by 20%]]                  ( * effect levels )                                                                                         (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Increase the next ''Liquid Kick'' skill damage by 20%]]                  ( * effect levels )                                                                                         (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,110 +970,110 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -1082,82 +1082,82 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="H7" s="27">
         <v>1</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H8" s="27">
         <v>1</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="25" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H9" s="27">
         <v>1</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
@@ -1170,7 +1170,7 @@
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
@@ -1183,106 +1183,106 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H12" s="34">
         <v>10</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H13" s="37">
         <v>10</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H15" s="6">
         <v>10</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="51" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H16" s="21">
         <v>1</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1292,37 +1292,37 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H17" s="41">
         <v>10</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="42" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H18" s="38">
         <v>100</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1332,35 +1332,35 @@
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H19" s="27">
         <v>100</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H20" s="55">
         <v>1</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1370,16 +1370,16 @@
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="57" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H21" s="59">
         <v>100</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1389,16 +1389,16 @@
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H22" s="55">
         <v>100</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1408,16 +1408,16 @@
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="57" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H23" s="59">
         <v>3</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,16 +1427,16 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="53" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H24" s="55">
         <v>1</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1446,16 +1446,16 @@
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="35" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H25" s="37">
         <v>100</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1465,16 +1465,16 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="48" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H26" s="50">
         <v>100</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1484,16 +1484,16 @@
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H27" s="52">
         <v>1000</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1503,16 +1503,16 @@
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H28" s="23">
         <v>1000</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1522,35 +1522,35 @@
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="44" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H29" s="46">
         <v>100</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H30" s="8">
         <v>1</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>STATS</t>
   </si>
@@ -99,9 +99,6 @@
     <t>[[Kick]]</t>
   </si>
   <si>
-    <t>[[Weak]]</t>
-  </si>
-  <si>
     <t>[[Vulnerable]]</t>
   </si>
   <si>
@@ -262,13 +259,154 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Elementalist</t>
+  </si>
+  <si>
+    <t>[[Water]]</t>
+  </si>
+  <si>
+    <t>[[Ground]]</t>
+  </si>
+  <si>
+    <t>[[Fire]]</t>
+  </si>
+  <si>
+    <t>[[Wind]]</t>
+  </si>
+  <si>
+    <t>[[Weak]] (Powerless)</t>
+  </si>
+  <si>
+    <t>[[Strengthless]]</t>
+  </si>
+  <si>
+    <t>[[Reduce final damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>Glyph Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>[[Natural Resistance]]</t>
+  </si>
+  <si>
+    <t>[[Elemental Protection]]</t>
+  </si>
+  <si>
+    <t>Immunity from the Elementalist skills and his "Pillar"                  (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       [[Increase water,ground,fire and wind resistance by 1%]]    [[Reduce light and dark resistance by 2%]]                                             ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Elemental Backfire]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increase a random element effect of an entity dealing damage to the entity with this effect.                                                  ---------------------------------------------------------------------                                                                          20% chance: [[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Water]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level ]] (00 turns)                                         20% chance: [[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Ground]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level ]] (00 turns)                                       20% chance: [[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Fire]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level ]] (00 turns)                                 20% chance: [[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Wind]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level ]] (00 turns)                                               20% chance: [[ - ]]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +450,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -945,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,15 +1108,18 @@
     <col min="7" max="7" width="54.85546875" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="9" t="s">
@@ -985,8 +1134,17 @@
       <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
         <v>21</v>
@@ -998,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1006,8 +1164,11 @@
       <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="L2" s="15"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="13" t="s">
         <v>22</v>
@@ -1019,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1027,8 +1188,11 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="13"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
         <v>23</v>
@@ -1040,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>
@@ -1048,8 +1212,11 @@
       <c r="I4" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="L4" s="13"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
         <v>10</v>
@@ -1061,7 +1228,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -1069,8 +1236,11 @@
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="13"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
         <v>12</v>
@@ -1082,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1090,8 +1260,11 @@
       <c r="I6" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="12"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
         <v>13</v>
@@ -1100,19 +1273,22 @@
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="27">
         <v>1</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>14</v>
@@ -1121,19 +1297,22 @@
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="27">
         <v>1</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
         <v>15</v>
@@ -1142,19 +1321,22 @@
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="27">
         <v>1</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
         <v>16</v>
@@ -1162,12 +1344,21 @@
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="48" t="s">
+        <v>81</v>
+      </c>
       <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="50">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
@@ -1175,12 +1366,21 @@
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
@@ -1188,20 +1388,21 @@
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="34">
-        <v>10</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>18</v>
@@ -1209,20 +1410,21 @@
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="37">
-        <v>10</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="6">
+        <v>5</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>19</v>
@@ -1230,20 +1432,23 @@
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="3">
-        <v>10</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
@@ -1252,19 +1457,22 @@
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="13" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="H15" s="6">
-        <v>10</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
         <v>8</v>
@@ -1272,388 +1480,707 @@
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="21">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="13"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="41">
-        <v>10</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="13"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="38">
-        <v>100</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="13"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="13"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="27">
-        <v>100</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="13"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="55">
-        <v>1</v>
-      </c>
-      <c r="I20" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="13"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="13"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="59">
-        <v>100</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="34">
+        <v>10</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="13"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="55">
-        <v>100</v>
-      </c>
-      <c r="I22" s="56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F22" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="37">
+        <v>10</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="59">
-        <v>3</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="13"/>
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="55">
-        <v>1</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="6">
+        <v>10</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="13"/>
       <c r="C25" s="6"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="43" t="s">
+      <c r="F25" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="37">
-        <v>100</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="13"/>
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="50">
-        <v>100</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="41">
+        <v>10</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="52">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="38">
+        <v>100</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="13"/>
       <c r="C28" s="6"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="23">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="27">
+        <v>100</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="13"/>
       <c r="C29" s="6"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="46">
-        <v>100</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="55">
+        <v>1</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="59">
+        <v>100</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="55">
+        <v>100</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="13"/>
       <c r="C32" s="6"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="59">
+        <v>50</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="13"/>
       <c r="C33" s="6"/>
       <c r="E33" s="31"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="59">
+        <v>3</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="13"/>
       <c r="C34" s="6"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="55">
+        <v>1</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
       <c r="E35" s="31"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="37">
+        <v>100</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="13"/>
       <c r="C36" s="6"/>
       <c r="E36" s="31"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="50">
+        <v>100</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
       <c r="E37" s="31"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="6">
+        <v>100</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="13"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
       <c r="E38" s="31"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="52">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="13"/>
       <c r="C39" s="6"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="13"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="7"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="46">
+        <v>100</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="13"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="6"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="6"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="6"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="6"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="6"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="6"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="6"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="6"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="6"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="6"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="6"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="6"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="6"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="6"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="7"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t>STATS</t>
   </si>
@@ -159,9 +159,6 @@
     <t>[[Stimulated]]</t>
   </si>
   <si>
-    <t>[[Laziness]]</t>
-  </si>
-  <si>
     <t>[[Increase AP by 1]]    ( * effect levels )</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>[[Return 1% of the damage taken to the attacker]]                                 ( * effect levels )</t>
   </si>
   <si>
-    <t>[[Binding]]</t>
-  </si>
-  <si>
     <t>Prevent movement caused by skills</t>
   </si>
   <si>
@@ -274,12 +268,6 @@
   </si>
   <si>
     <t>[[Wind]]</t>
-  </si>
-  <si>
-    <t>[[Weak]] (Powerless)</t>
-  </si>
-  <si>
-    <t>[[Strengthless]]</t>
   </si>
   <si>
     <t>[[Reduce final damage by 1%]]    ( * effect levels )</t>
@@ -401,12 +389,170 @@
       <t xml:space="preserve"> +1 level ]] (00 turns)                                               20% chance: [[ - ]]</t>
     </r>
   </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove AP</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove MP</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to inflicts Fire-type damage</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove Range</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Strengthless]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Over Powerless)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Weak]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Powerless)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Binding]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Heavyness)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Zombification]]</t>
+  </si>
+  <si>
+    <t>[[Reanimated]]</t>
+  </si>
+  <si>
+    <t>(Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Void]]</t>
+  </si>
+  <si>
+    <t>Revive a previously K/O entity ehit 60% HP.                                                               Can't be reanimated a second time.                                                                 (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Incurable]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can't regain HP except by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Vitality]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Reduce Max HP by 1% initial Max HP]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Phobia of Darkness]]</t>
+  </si>
+  <si>
+    <t>[[Phobia of Light]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       [[Reduce light resistance by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       [[Reduce dark resistance by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Self Consumption]]</t>
+  </si>
+  <si>
+    <t>[[Return 1% of the damage dealt in Dark-type damage]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Laziness]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Exhausted</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +608,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -636,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,6 +965,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,7 +1252,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="9" t="s">
@@ -1135,13 +1293,13 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1156,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1180,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1204,7 +1362,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>
@@ -1228,7 +1386,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -1252,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1276,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="27">
         <v>1</v>
@@ -1297,16 +1455,16 @@
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8" s="27">
         <v>1</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="6"/>
@@ -1321,16 +1479,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="27">
         <v>1</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="6"/>
@@ -1345,14 +1503,16 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="49"/>
+        <v>79</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>93</v>
+      </c>
       <c r="H10" s="50">
         <v>5</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="6"/>
@@ -1367,20 +1527,22 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="H11" s="6">
         <v>5</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
@@ -1389,14 +1551,16 @@
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="H12" s="6">
         <v>5</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="6"/>
@@ -1411,14 +1575,16 @@
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="16"/>
+        <v>82</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="H13" s="6">
         <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="6"/>
@@ -1433,16 +1599,16 @@
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="6"/>
@@ -1457,16 +1623,16 @@
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H15" s="6">
         <v>1</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="6"/>
@@ -1505,7 +1671,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
@@ -1556,13 +1722,13 @@
         <v>45</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="34">
         <v>10</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="6"/>
@@ -1575,16 +1741,16 @@
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="35" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="37">
         <v>10</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="6"/>
@@ -1600,13 +1766,13 @@
         <v>43</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="3">
         <v>10</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="6"/>
@@ -1622,13 +1788,13 @@
         <v>44</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="6">
         <v>10</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="6"/>
@@ -1641,16 +1807,16 @@
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="51" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H25" s="21">
         <v>1</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="6"/>
@@ -1672,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L26" s="13"/>
       <c r="M26" s="6"/>
@@ -1694,7 +1860,7 @@
         <v>100</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="6"/>
@@ -1716,7 +1882,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="6"/>
@@ -1729,16 +1895,16 @@
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" s="55">
         <v>1</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="6"/>
@@ -1760,7 +1926,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="6"/>
@@ -1782,7 +1948,7 @@
         <v>100</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L31" s="13"/>
       <c r="M31" s="6"/>
@@ -1795,16 +1961,16 @@
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="57" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H32" s="59">
         <v>50</v>
       </c>
       <c r="I32" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="6"/>
@@ -1816,16 +1982,16 @@
       <c r="C33" s="6"/>
       <c r="E33" s="31"/>
       <c r="F33" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="58" t="s">
         <v>57</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>58</v>
       </c>
       <c r="H33" s="59">
         <v>3</v>
       </c>
       <c r="I33" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="6"/>
@@ -1837,16 +2003,16 @@
       <c r="C34" s="6"/>
       <c r="E34" s="31"/>
       <c r="F34" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="54" t="s">
         <v>53</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>54</v>
       </c>
       <c r="H34" s="55">
         <v>1</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="6"/>
@@ -1858,16 +2024,16 @@
       <c r="C35" s="6"/>
       <c r="E35" s="31"/>
       <c r="F35" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="43" t="s">
         <v>61</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>62</v>
       </c>
       <c r="H35" s="37">
         <v>100</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L35" s="13"/>
       <c r="M35" s="6"/>
@@ -1879,37 +2045,37 @@
       <c r="C36" s="6"/>
       <c r="E36" s="31"/>
       <c r="F36" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H36" s="50">
         <v>100</v>
       </c>
       <c r="I36" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
       <c r="E37" s="31"/>
-      <c r="F37" s="13" t="s">
-        <v>86</v>
+      <c r="F37" s="60" t="s">
+        <v>97</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H37" s="6">
         <v>100</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="6"/>
@@ -1930,7 +2096,7 @@
         <v>1000</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L38" s="13"/>
       <c r="M38" s="6"/>
@@ -1942,7 +2108,7 @@
       <c r="C39" s="6"/>
       <c r="E39" s="31"/>
       <c r="F39" s="14" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>28</v>
@@ -1951,7 +2117,7 @@
         <v>1000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="6"/>
@@ -1973,7 +2139,7 @@
         <v>100</v>
       </c>
       <c r="I40" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L40" s="13"/>
       <c r="M40" s="6"/>
@@ -1985,16 +2151,16 @@
       <c r="C41" s="6"/>
       <c r="E41" s="31"/>
       <c r="F41" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H41" s="8">
         <v>1</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L41" s="13"/>
       <c r="M41" s="6"/>
@@ -2031,23 +2197,39 @@
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
       <c r="E44" s="31"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="F44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="L44" s="13"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="13"/>
       <c r="C45" s="6"/>
       <c r="E45" s="31"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="F45" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="L45" s="13"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -2057,10 +2239,18 @@
       <c r="B46" s="13"/>
       <c r="C46" s="6"/>
       <c r="E46" s="31"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="F46" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="30">
+        <v>100</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="L46" s="13"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -2070,10 +2260,18 @@
       <c r="B47" s="13"/>
       <c r="C47" s="6"/>
       <c r="E47" s="31"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="F47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="L47" s="13"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -2083,10 +2281,18 @@
       <c r="B48" s="13"/>
       <c r="C48" s="6"/>
       <c r="E48" s="31"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+      <c r="F48" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="30">
+        <v>100</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="L48" s="13"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -2096,10 +2302,18 @@
       <c r="B49" s="13"/>
       <c r="C49" s="6"/>
       <c r="E49" s="31"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="F49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="6">
+        <v>100</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="L49" s="13"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -2109,10 +2323,18 @@
       <c r="B50" s="13"/>
       <c r="C50" s="6"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="F50" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="6">
+        <v>100</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="L50" s="13"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -1249,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,16 +2393,116 @@
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="6"/>
       <c r="E55" s="31"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
       <c r="L55" s="14"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="6"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="6"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="6"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="6"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="6"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="6"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="6"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="6"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="6"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="7"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>STATS</t>
   </si>
@@ -546,6 +546,48 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>[[Imbolc]]</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>[[Beltane]]</t>
+  </si>
+  <si>
+    <t>[[Lugnasa]]</t>
+  </si>
+  <si>
+    <t>[[Reduce all buff by 3 turns]] (1 turn) (Next turn)                                                     Self and allies: [[Heal: 15% HP]] (1 turns) (Next turn)                                            (Area of effect: Square of 1 cell radius around)                                                                 (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Armor]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 25 levels (2 turns) (Next turn)                                           (Area of effect: Square of 1 cell radius around)                                                                 (Can't be unbuffed)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Heal 50% HP]] (Next turn)                                                                            (Area of effect: All the map)                                                                                                   (Can't be unbuffed)</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,9 +1562,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1545,7 +1585,7 @@
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
@@ -1568,8 +1608,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
@@ -1593,7 +1633,7 @@
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
@@ -1614,10 +1654,10 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="14" t="s">
-        <v>20</v>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
@@ -1638,55 +1678,81 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="12" t="s">
-        <v>8</v>
+      <c r="B16" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="F16" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="L16" s="13"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="F17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="L17" s="13"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="F18" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="L18" s="13"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>STATS</t>
   </si>
@@ -229,12 +229,6 @@
   </si>
   <si>
     <t>Increase the damage taken by the ''Precision Strike'' skill.            (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Increase power by 200]]                                                                            [[Increase AP by 1]]                                                                                       (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [[Increase HP by 30%]]                                                                                [[Increase resistance by 15%]]                                                                                      (Can't be unbuffed)</t>
   </si>
   <si>
     <t>Allow some of the Ninja skills to poison his target.                                       (Can't be unbuffed)</t>
@@ -459,9 +453,6 @@
     <t>[[Reanimated]]</t>
   </si>
   <si>
-    <t>(Can't be unbuffed)</t>
-  </si>
-  <si>
     <t>[[Void]]</t>
   </si>
   <si>
@@ -588,6 +579,114 @@
   </si>
   <si>
     <t>[[Heal 50% HP]] (Next turn)                                                                            (Area of effect: All the map)                                                                                                   (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Specialy Shown</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Take damage from healing]]                                                                        [[Healed from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Poison]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]                                                                       (Can't be unbuffed)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Dō-Maru]]</t>
+  </si>
+  <si>
+    <t>[[Keikogi]]</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Increase resistance by 20%]]                                                        [[Reduce AP by 1]]                                                                                      [[Reduce MP by 1]]                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Reduce resistance by 20%]]                                                        [[Increase AP by 1]]                                                                                      [[Increase MP by 2]]                                                                                      </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [[Increase HP by 30%]]                                                                                [[Increase resistance by 15%]]                                                                                      (Can't be unbuffed except by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Fighter Aura]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Increase power by 200]]                                                                            [[Increase AP by 1]]                                                                                       (Can't be unbuffed except by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Fighter Meditation]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Cut]]</t>
+  </si>
+  <si>
+    <t>Increase the damage taken by the ''Katana'' skill.</t>
   </si>
 </sst>
 </file>
@@ -1291,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,19 +1406,20 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="54.85546875" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="28" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="9" t="s">
@@ -1334,17 +1434,20 @@
       <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
         <v>21</v>
@@ -1356,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1364,11 +1467,12 @@
       <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="J2" s="19"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="13" t="s">
         <v>22</v>
@@ -1380,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1388,11 +1492,12 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="18"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
         <v>23</v>
@@ -1412,11 +1517,12 @@
       <c r="I4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="J4" s="18"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
         <v>10</v>
@@ -1428,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -1436,11 +1542,12 @@
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="18"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
         <v>12</v>
@@ -1452,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1460,11 +1567,12 @@
       <c r="I6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="22"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
         <v>13</v>
@@ -1484,11 +1592,12 @@
       <c r="I7" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="47"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>14</v>
@@ -1500,7 +1609,7 @@
         <v>54</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H8" s="27">
         <v>1</v>
@@ -1508,11 +1617,12 @@
       <c r="I8" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="47"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
         <v>15</v>
@@ -1532,11 +1642,12 @@
       <c r="I9" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="47"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
         <v>16</v>
@@ -1545,44 +1656,46 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H10" s="50">
         <v>5</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H11" s="6">
         <v>5</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -1591,22 +1704,23 @@
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" s="6">
         <v>5</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>17</v>
@@ -1615,22 +1729,23 @@
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H13" s="6">
         <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>18</v>
@@ -1639,22 +1754,23 @@
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>19</v>
@@ -1662,23 +1778,24 @@
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="F15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -1686,23 +1803,24 @@
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="F16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1711,44 +1829,46 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="H17" s="6">
         <v>1</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="13" t="s">
         <v>51</v>
@@ -1756,483 +1876,362 @@
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="13"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="34">
-        <v>10</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="30">
+        <v>3</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="13"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="37">
-        <v>10</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="13"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="13"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="13"/>
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="6">
-        <v>10</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="13"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="13"/>
       <c r="C25" s="6"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="21">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="13"/>
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="41">
-        <v>10</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="13"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="38">
-        <v>100</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="13"/>
       <c r="C28" s="6"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="27">
-        <v>100</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F28" s="13"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="13"/>
       <c r="C29" s="6"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="55">
-        <v>1</v>
-      </c>
-      <c r="I29" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F29" s="13"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="59">
-        <v>100</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="55">
-        <v>100</v>
-      </c>
-      <c r="I31" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="13"/>
       <c r="C32" s="6"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="59">
-        <v>50</v>
-      </c>
-      <c r="I32" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32" s="13"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="13"/>
       <c r="C33" s="6"/>
       <c r="E33" s="31"/>
-      <c r="F33" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="59">
-        <v>3</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="13"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="13"/>
       <c r="C34" s="6"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="55">
-        <v>1</v>
-      </c>
-      <c r="I34" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="13"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="13"/>
       <c r="C35" s="6"/>
       <c r="E35" s="31"/>
-      <c r="F35" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="37">
-        <v>100</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="13"/>
       <c r="C36" s="6"/>
       <c r="E36" s="31"/>
-      <c r="F36" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="50">
-        <v>100</v>
-      </c>
-      <c r="I36" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F36" s="13"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
       <c r="E37" s="31"/>
-      <c r="F37" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="6">
-        <v>100</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
       <c r="E38" s="31"/>
-      <c r="F38" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="52">
-        <v>1000</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="13"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="13"/>
       <c r="C39" s="6"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="23">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="13"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="13"/>
       <c r="C40" s="6"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="46">
-        <v>100</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F40" s="13"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="13"/>
       <c r="C41" s="6"/>
       <c r="E41" s="31"/>
-      <c r="F41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="13"/>
       <c r="C42" s="6"/>
@@ -2241,316 +2240,462 @@
       <c r="G42" s="16"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="6"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="13"/>
       <c r="C43" s="6"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F43" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="34">
+        <v>10</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="34"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
       <c r="E44" s="31"/>
-      <c r="F44" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6" t="s">
+      <c r="F44" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="37">
+        <v>10</v>
+      </c>
+      <c r="I44" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="J44" s="38"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="13"/>
       <c r="C45" s="6"/>
       <c r="E45" s="31"/>
-      <c r="F45" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="6">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="F45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J45" s="8"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="13"/>
       <c r="C46" s="6"/>
       <c r="E46" s="31"/>
-      <c r="F46" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="30">
-        <v>100</v>
-      </c>
-      <c r="I46" s="30" t="s">
+      <c r="F46" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="6">
+        <v>10</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J46" s="6"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="13"/>
       <c r="C47" s="6"/>
       <c r="E47" s="31"/>
-      <c r="F47" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="6">
+      <c r="F47" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="21">
         <v>1</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J47" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="O47" s="13"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="13"/>
       <c r="C48" s="6"/>
       <c r="E48" s="31"/>
-      <c r="F48" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" s="30">
-        <v>100</v>
-      </c>
-      <c r="I48" s="30" t="s">
+      <c r="F48" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="41">
+        <v>10</v>
+      </c>
+      <c r="I48" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="41"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="13"/>
       <c r="C49" s="6"/>
       <c r="E49" s="31"/>
-      <c r="F49" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H49" s="6">
+      <c r="F49" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="38">
         <v>100</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J49" s="38"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="13"/>
       <c r="C50" s="6"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="6">
+      <c r="F50" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="27">
         <v>100</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="27"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="13"/>
       <c r="C51" s="6"/>
       <c r="E51" s="31"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F51" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="55">
+        <v>1</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="O51" s="13"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="13"/>
       <c r="C52" s="6"/>
       <c r="E52" s="31"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F52" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="59">
+        <v>100</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="59"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="13"/>
       <c r="C53" s="6"/>
       <c r="E53" s="31"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F53" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="55">
+        <v>100</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="56"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="13"/>
       <c r="C54" s="6"/>
       <c r="E54" s="31"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="59">
+        <v>50</v>
+      </c>
+      <c r="I54" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="59"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="13"/>
       <c r="C55" s="6"/>
       <c r="E55" s="31"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F55" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="59">
+        <v>3</v>
+      </c>
+      <c r="I55" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="O55" s="14"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="13"/>
       <c r="C56" s="6"/>
       <c r="E56" s="31"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F56" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="55">
+        <v>1</v>
+      </c>
+      <c r="I56" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="13"/>
       <c r="C57" s="6"/>
       <c r="E57" s="31"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F57" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="37">
+        <v>100</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
       <c r="E58" s="31"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F58" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" s="50">
+        <v>100</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="50"/>
+    </row>
+    <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="13"/>
       <c r="C59" s="6"/>
       <c r="E59" s="31"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F59" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="6">
+        <v>100</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="13"/>
       <c r="C60" s="6"/>
       <c r="E60" s="31"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F60" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="52">
+        <v>1000</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="13"/>
       <c r="C61" s="6"/>
       <c r="E61" s="31"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F61" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="13"/>
       <c r="C62" s="6"/>
       <c r="E62" s="31"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F62" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="46">
+        <v>100</v>
+      </c>
+      <c r="I62" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="13"/>
       <c r="C63" s="6"/>
       <c r="E63" s="31"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F63" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="8">
+        <v>1</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="13"/>
       <c r="C64" s="6"/>
@@ -2559,16 +2704,390 @@
       <c r="G64" s="16"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="6"/>
       <c r="E65" s="31"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="6"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="6"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="6"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="30">
+        <v>100</v>
+      </c>
+      <c r="I68" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68" s="30"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="6"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="6"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="30">
+        <v>100</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J70" s="30"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="6"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="6">
+        <v>100</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="6"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="6">
+        <v>100</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="6"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="6"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="6"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="6"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="6"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="6"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="6"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="6"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="6"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="6"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="6"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="6"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="6"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="6"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="6"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="6"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="6"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="6"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="6"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="6"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="7"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="139">
   <si>
     <t>STATS</t>
   </si>
@@ -384,18 +384,6 @@
     </r>
   </si>
   <si>
-    <t>Used by the ''Natural Disaster'' skill to remove AP</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to remove MP</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to inflicts Fire-type damage</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to remove Range</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">[[Strengthless]] </t>
     </r>
@@ -462,33 +450,6 @@
     <t>[[Incurable]]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Can't regain HP except by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Vitality]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>[[Reduce Max HP by 1% initial Max HP]]    ( * effect levels )</t>
   </si>
   <si>
@@ -505,9 +466,6 @@
   </si>
   <si>
     <t>[[Self Consumption]]</t>
-  </si>
-  <si>
-    <t>[[Return 1% of the damage dealt in Dark-type damage]]</t>
   </si>
   <si>
     <r>
@@ -687,6 +645,72 @@
   </si>
   <si>
     <t>Increase the damage taken by the ''Katana'' skill.</t>
+  </si>
+  <si>
+    <t>Melee Damage by %</t>
+  </si>
+  <si>
+    <t>Ranged Damage by %</t>
+  </si>
+  <si>
+    <t>[[Melee]]</t>
+  </si>
+  <si>
+    <t>[[Ranged]]</t>
+  </si>
+  <si>
+    <t>[[Increase ranged damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Increase melee damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can't regain HP except by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Vitality]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.                                                (Can't be unbuffed)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Return 1% of the damage dealt in Dark-type damage]]                             (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Preparation]]</t>
+  </si>
+  <si>
+    <t>[[Increase next skill damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove AP                         (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to inflicts Fire-type damage               (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove MP                                (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove Range                                 (Can't be unbuffed)</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>82</v>
@@ -1459,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1484,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1647,7 +1671,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
         <v>16</v>
@@ -1659,7 +1683,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H10" s="50">
         <v>5</v>
@@ -1672,7 +1696,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
@@ -1682,7 +1706,7 @@
         <v>78</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="H11" s="6">
         <v>5</v>
@@ -1707,7 +1731,7 @@
         <v>79</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="H12" s="6">
         <v>5</v>
@@ -1720,7 +1744,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>17</v>
@@ -1732,7 +1756,7 @@
         <v>80</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="H13" s="6">
         <v>5</v>
@@ -1804,16 +1828,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J16" s="18"/>
       <c r="O16" s="13"/>
@@ -1829,16 +1853,16 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H17" s="6">
         <v>1</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J17" s="18"/>
       <c r="O17" s="13"/>
@@ -1852,16 +1876,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J18" s="22"/>
       <c r="O18" s="13"/>
@@ -1877,16 +1901,16 @@
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H19" s="8">
         <v>1</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J19" s="18"/>
       <c r="O19" s="13"/>
@@ -1900,16 +1924,16 @@
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J20" s="18"/>
       <c r="O20" s="13"/>
@@ -1923,16 +1947,16 @@
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H21" s="30">
         <v>3</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J21" s="18"/>
       <c r="O21" s="13"/>
@@ -1956,7 +1980,9 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -1971,7 +1997,9 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2273,7 +2301,7 @@
       <c r="C44" s="6"/>
       <c r="E44" s="31"/>
       <c r="F44" s="35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>47</v>
@@ -2339,7 +2367,7 @@
       <c r="C47" s="6"/>
       <c r="E47" s="31"/>
       <c r="F47" s="51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>62</v>
@@ -2351,7 +2379,7 @@
         <v>59</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O47" s="13"/>
       <c r="P47" s="6"/>
@@ -2441,7 +2469,7 @@
         <v>59</v>
       </c>
       <c r="J51" s="55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="6"/>
@@ -2531,7 +2559,7 @@
         <v>59</v>
       </c>
       <c r="J55" s="59" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O55" s="14"/>
       <c r="P55" s="7"/>
@@ -2555,7 +2583,7 @@
         <v>59</v>
       </c>
       <c r="J56" s="55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2576,7 +2604,7 @@
         <v>59</v>
       </c>
       <c r="J57" s="37" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -2604,7 +2632,7 @@
       <c r="C59" s="6"/>
       <c r="E59" s="31"/>
       <c r="F59" s="60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>81</v>
@@ -2642,7 +2670,7 @@
       <c r="C61" s="6"/>
       <c r="E61" s="31"/>
       <c r="F61" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>28</v>
@@ -2692,7 +2720,7 @@
         <v>59</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -2717,65 +2745,37 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="13"/>
       <c r="C66" s="6"/>
       <c r="E66" s="31"/>
-      <c r="F66" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H66" s="6">
-        <v>1</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F66" s="13"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="13"/>
       <c r="C67" s="6"/>
       <c r="E67" s="31"/>
-      <c r="F67" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H67" s="6">
-        <v>1</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="13"/>
       <c r="C68" s="6"/>
       <c r="E68" s="31"/>
-      <c r="F68" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="H68" s="30">
-        <v>100</v>
-      </c>
-      <c r="I68" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
       <c r="J68" s="30"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2783,79 +2783,63 @@
       <c r="B69" s="13"/>
       <c r="C69" s="6"/>
       <c r="E69" s="31"/>
-      <c r="F69" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" s="6">
-        <v>1</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="13"/>
       <c r="C70" s="6"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" s="30">
-        <v>100</v>
-      </c>
-      <c r="I70" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J70" s="30"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="13"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="13"/>
       <c r="C71" s="6"/>
       <c r="E71" s="31"/>
       <c r="F71" s="13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H71" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="13"/>
       <c r="C72" s="6"/>
       <c r="E72" s="31"/>
       <c r="F72" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H72" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2863,65 +2847,117 @@
       <c r="B73" s="13"/>
       <c r="C73" s="6"/>
       <c r="E73" s="31"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H73" s="30">
+        <v>100</v>
+      </c>
+      <c r="I73" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J73" s="30"/>
+    </row>
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="13"/>
       <c r="C74" s="6"/>
       <c r="E74" s="31"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="F74" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="13"/>
       <c r="C75" s="6"/>
       <c r="E75" s="31"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="F75" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" s="30">
+        <v>100</v>
+      </c>
+      <c r="I75" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J75" s="30"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="13"/>
       <c r="C76" s="6"/>
       <c r="E76" s="31"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F76" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="6">
+        <v>100</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="13"/>
       <c r="C77" s="6"/>
       <c r="E77" s="31"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="F77" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H77" s="6">
+        <v>100</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="13"/>
       <c r="C78" s="6"/>
       <c r="E78" s="31"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
+      <c r="F78" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" s="6">
+        <v>100</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="J78" s="30"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2929,10 +2965,18 @@
       <c r="B79" s="13"/>
       <c r="C79" s="6"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="F79" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" s="6">
+        <v>100</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2940,10 +2984,18 @@
       <c r="B80" s="13"/>
       <c r="C80" s="6"/>
       <c r="E80" s="31"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="F80" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" s="6">
+        <v>100</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
   <si>
     <t>STATS</t>
   </si>
@@ -292,7 +292,375 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Increase a random element effect of an entity dealing damage to the entity with this effect.                                                  ---------------------------------------------------------------------                                                                          20% chance: [[ </t>
+      <t xml:space="preserve">[[Strengthless]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Over Powerless)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Weak]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Powerless)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Binding]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Heavyness)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Zombification]]</t>
+  </si>
+  <si>
+    <t>[[Reanimated]]</t>
+  </si>
+  <si>
+    <t>[[Void]]</t>
+  </si>
+  <si>
+    <t>Revive a previously K/O entity ehit 60% HP.                                                               Can't be reanimated a second time.                                                                 (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Incurable]]</t>
+  </si>
+  <si>
+    <t>[[Reduce Max HP by 1% initial Max HP]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Phobia of Darkness]]</t>
+  </si>
+  <si>
+    <t>[[Phobia of Light]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       [[Reduce light resistance by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       [[Reduce dark resistance by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Self Consumption]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Laziness]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Exhausted</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Imbolc]]</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>[[Beltane]]</t>
+  </si>
+  <si>
+    <t>[[Lugnasa]]</t>
+  </si>
+  <si>
+    <t>[[Reduce all buff by 3 turns]] (1 turn) (Next turn)                                                     Self and allies: [[Heal: 15% HP]] (1 turns) (Next turn)                                            (Area of effect: Square of 1 cell radius around)                                                                 (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Armor]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 25 levels (2 turns) (Next turn)                                           (Area of effect: Square of 1 cell radius around)                                                                 (Can't be unbuffed)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Heal 50% HP]] (Next turn)                                                                            (Area of effect: All the map)                                                                                                   (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Specialy Shown</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Take damage from healing]]                                                                        [[Healed from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Poison]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]]                                                                       (Can't be unbuffed)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Dō-Maru]]</t>
+  </si>
+  <si>
+    <t>[[Keikogi]]</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Increase resistance by 20%]]                                                        [[Reduce AP by 1]]                                                                                      [[Reduce MP by 1]]                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Reduce resistance by 20%]]                                                        [[Increase AP by 1]]                                                                                      [[Increase MP by 2]]                                                                                      </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [[Increase HP by 30%]]                                                                                [[Increase resistance by 15%]]                                                                                      (Can't be unbuffed except by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Fighter Aura]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Increase power by 200]]                                                                            [[Increase AP by 1]]                                                                                       (Can't be unbuffed except by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Fighter Meditation]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Cut]]</t>
+  </si>
+  <si>
+    <t>Increase the damage taken by the ''Katana'' skill.</t>
+  </si>
+  <si>
+    <t>Melee Damage by %</t>
+  </si>
+  <si>
+    <t>Ranged Damage by %</t>
+  </si>
+  <si>
+    <t>[[Melee]]</t>
+  </si>
+  <si>
+    <t>[[Ranged]]</t>
+  </si>
+  <si>
+    <t>[[Increase ranged damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Increase melee damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can't regain HP except by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Vitality]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.                                                (Can't be unbuffed)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Return 1% of the damage dealt in Dark-type damage]]                             (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Preparation]]</t>
+  </si>
+  <si>
+    <t>[[Increase next skill damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove AP                         (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to inflicts Fire-type damage               (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove MP                                (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Used by the ''Natural Disaster'' skill to remove Range                                 (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Invulnerable (Melee)]]</t>
+  </si>
+  <si>
+    <t>Can't loose HP by melee damage.                                                                                                        (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Can't loose HP by ranged damage.                                                                                                        (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>[[Invulnerable (Range)]]</t>
+  </si>
+  <si>
+    <t>[[Vampire Mark]]</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>[[Damage: 1 fire steal]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Skip]]</t>
+  </si>
+  <si>
+    <t>End turn automatically.                                                                     (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Aura of Terror]]</t>
+  </si>
+  <si>
+    <t>Push adjacent entities by 1 cell.                                                            (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Red Moon]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increase a random element effect of an entity dealing damage to the entity with this effect.                                                                       ---------------------------------------------------------------------                                                                          20% chance: [[ </t>
     </r>
     <r>
       <rPr>
@@ -384,333 +752,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[[Strengthless]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Over Powerless)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Weak]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Powerless)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Binding]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Heavyness)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Zombification]]</t>
-  </si>
-  <si>
-    <t>[[Reanimated]]</t>
-  </si>
-  <si>
-    <t>[[Void]]</t>
-  </si>
-  <si>
-    <t>Revive a previously K/O entity ehit 60% HP.                                                               Can't be reanimated a second time.                                                                 (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Incurable]]</t>
-  </si>
-  <si>
-    <t>[[Reduce Max HP by 1% initial Max HP]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Phobia of Darkness]]</t>
-  </si>
-  <si>
-    <t>[[Phobia of Light]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       [[Reduce light resistance by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       [[Reduce dark resistance by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Self Consumption]]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Laziness]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Exhausted</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Imbolc]]</t>
-  </si>
-  <si>
-    <t>Druid</t>
-  </si>
-  <si>
-    <t>[[Beltane]]</t>
-  </si>
-  <si>
-    <t>[[Lugnasa]]</t>
-  </si>
-  <si>
-    <t>[[Reduce all buff by 3 turns]] (1 turn) (Next turn)                                                     Self and allies: [[Heal: 15% HP]] (1 turns) (Next turn)                                            (Area of effect: Square of 1 cell radius around)                                                                 (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Armor]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 25 levels (2 turns) (Next turn)                                           (Area of effect: Square of 1 cell radius around)                                                                 (Can't be unbuffed)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Heal 50% HP]] (Next turn)                                                                            (Area of effect: All the map)                                                                                                   (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>Specialy Shown</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Take damage from healing]]                                                                        [[Healed from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Poison]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]]                                                                       (Can't be unbuffed)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Dō-Maru]]</t>
-  </si>
-  <si>
-    <t>[[Keikogi]]</t>
-  </si>
-  <si>
-    <t>Samurai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[Increase resistance by 20%]]                                                        [[Reduce AP by 1]]                                                                                      [[Reduce MP by 1]]                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[Reduce resistance by 20%]]                                                        [[Increase AP by 1]]                                                                                      [[Increase MP by 2]]                                                                                      </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> [[Increase HP by 30%]]                                                                                [[Increase resistance by 15%]]                                                                                      (Can't be unbuffed except by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Fighter Aura]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Increase power by 200]]                                                                            [[Increase AP by 1]]                                                                                       (Can't be unbuffed except by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Fighter Meditation]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Cut]]</t>
-  </si>
-  <si>
-    <t>Increase the damage taken by the ''Katana'' skill.</t>
-  </si>
-  <si>
-    <t>Melee Damage by %</t>
-  </si>
-  <si>
-    <t>Ranged Damage by %</t>
-  </si>
-  <si>
-    <t>[[Melee]]</t>
-  </si>
-  <si>
-    <t>[[Ranged]]</t>
-  </si>
-  <si>
-    <t>[[Increase ranged damage by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Increase melee damage by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can't regain HP except by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Vitality]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.                                                (Can't be unbuffed)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Return 1% of the damage dealt in Dark-type damage]]                             (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Preparation]]</t>
-  </si>
-  <si>
-    <t>[[Increase next skill damage by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to remove AP                         (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to inflicts Fire-type damage               (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to remove MP                                (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to remove Range                                 (Can't be unbuffed)</t>
+    <t>All skills damage steal life, they steal ratio increase by 100%                                                                                     (Can't be unbuffed)</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>82</v>
@@ -1483,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1508,7 +1550,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1683,7 +1725,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="50">
         <v>5</v>
@@ -1706,7 +1748,7 @@
         <v>78</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="6">
         <v>5</v>
@@ -1731,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="6">
         <v>5</v>
@@ -1756,7 +1798,7 @@
         <v>80</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="6">
         <v>5</v>
@@ -1806,7 +1848,7 @@
         <v>89</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1828,16 +1870,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J16" s="18"/>
       <c r="O16" s="13"/>
@@ -1853,16 +1895,16 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="6">
         <v>1</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J17" s="18"/>
       <c r="O17" s="13"/>
@@ -1876,16 +1918,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" s="22"/>
       <c r="O18" s="13"/>
@@ -1901,16 +1943,16 @@
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="8">
         <v>1</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J19" s="18"/>
       <c r="O19" s="13"/>
@@ -1924,41 +1966,41 @@
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" s="18"/>
       <c r="O20" s="13"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="13"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="30">
+      <c r="H21" s="7">
         <v>3</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" s="18"/>
+      <c r="I21" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="22"/>
       <c r="O21" s="13"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -1969,28 +2011,44 @@
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="F22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="8">
+        <v>50</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="18"/>
       <c r="O22" s="13"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="F23" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="18"/>
       <c r="O23" s="13"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -1998,7 +2056,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
@@ -2301,7 +2359,7 @@
       <c r="C44" s="6"/>
       <c r="E44" s="31"/>
       <c r="F44" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>47</v>
@@ -2367,7 +2425,7 @@
       <c r="C47" s="6"/>
       <c r="E47" s="31"/>
       <c r="F47" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>62</v>
@@ -2379,7 +2437,7 @@
         <v>59</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O47" s="13"/>
       <c r="P47" s="6"/>
@@ -2469,7 +2527,7 @@
         <v>59</v>
       </c>
       <c r="J51" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="6"/>
@@ -2559,7 +2617,7 @@
         <v>59</v>
       </c>
       <c r="J55" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O55" s="14"/>
       <c r="P55" s="7"/>
@@ -2583,7 +2641,7 @@
         <v>59</v>
       </c>
       <c r="J56" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2604,7 +2662,7 @@
         <v>59</v>
       </c>
       <c r="J57" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -2632,7 +2690,7 @@
       <c r="C59" s="6"/>
       <c r="E59" s="31"/>
       <c r="F59" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>81</v>
@@ -2670,7 +2728,7 @@
       <c r="C61" s="6"/>
       <c r="E61" s="31"/>
       <c r="F61" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>28</v>
@@ -2720,7 +2778,7 @@
         <v>59</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -2806,10 +2864,10 @@
       <c r="C71" s="6"/>
       <c r="E71" s="31"/>
       <c r="F71" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H71" s="6">
         <v>1</v>
@@ -2818,7 +2876,7 @@
         <v>59</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2827,10 +2885,10 @@
       <c r="C72" s="6"/>
       <c r="E72" s="31"/>
       <c r="F72" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" s="6">
         <v>1</v>
@@ -2839,7 +2897,7 @@
         <v>59</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2848,10 +2906,10 @@
       <c r="C73" s="6"/>
       <c r="E73" s="31"/>
       <c r="F73" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" s="30">
         <v>100</v>
@@ -2867,10 +2925,10 @@
       <c r="C74" s="6"/>
       <c r="E74" s="31"/>
       <c r="F74" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H74" s="6">
         <v>1</v>
@@ -2879,7 +2937,7 @@
         <v>59</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2888,10 +2946,10 @@
       <c r="C75" s="6"/>
       <c r="E75" s="31"/>
       <c r="F75" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="G75" s="29" t="s">
-        <v>102</v>
       </c>
       <c r="H75" s="30">
         <v>100</v>
@@ -2907,10 +2965,10 @@
       <c r="C76" s="6"/>
       <c r="E76" s="31"/>
       <c r="F76" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H76" s="6">
         <v>100</v>
@@ -2926,10 +2984,10 @@
       <c r="C77" s="6"/>
       <c r="E77" s="31"/>
       <c r="F77" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H77" s="6">
         <v>100</v>
@@ -2938,7 +2996,7 @@
         <v>59</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2947,10 +3005,10 @@
       <c r="C78" s="6"/>
       <c r="E78" s="31"/>
       <c r="F78" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="H78" s="6">
         <v>100</v>
@@ -2966,10 +3024,10 @@
       <c r="C79" s="6"/>
       <c r="E79" s="31"/>
       <c r="F79" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H79" s="6">
         <v>100</v>
@@ -2985,10 +3043,10 @@
       <c r="C80" s="6"/>
       <c r="E80" s="31"/>
       <c r="F80" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="H80" s="6">
         <v>100</v>
@@ -2998,49 +3056,89 @@
       </c>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="13"/>
       <c r="C81" s="6"/>
       <c r="E81" s="31"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F81" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" s="30">
+        <v>1</v>
+      </c>
+      <c r="I81" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="13"/>
       <c r="C82" s="6"/>
       <c r="E82" s="31"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F82" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="13"/>
       <c r="C83" s="6"/>
       <c r="E83" s="31"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F83" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="13"/>
       <c r="C84" s="6"/>
       <c r="E84" s="31"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
+      <c r="F84" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="160">
   <si>
     <t>STATS</t>
   </si>
@@ -753,6 +753,27 @@
   </si>
   <si>
     <t>All skills damage steal life, they steal ratio increase by 100%                                                                                     (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t>[[Power Supply]]</t>
+  </si>
+  <si>
+    <t>Allow the usage of some Cyborg skills                                                         (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Self-Destruction Countdown]]</t>
+  </si>
+  <si>
+    <t>When effect is removed, entity K/O.                                                                      (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Checkpoint]]</t>
+  </si>
+  <si>
+    <t>Save the position when gaining this effect.                                              Teleport to the saved position at the end of the turn and remove the ''Checkpoint Glyph''                                                                     If can't be teleported: [[Damage: 100 light]]</t>
   </si>
 </sst>
 </file>
@@ -1458,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1490,7 @@
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" customWidth="1"/>
     <col min="5" max="5" width="0.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
     <col min="7" max="7" width="54.85546875" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
@@ -2028,7 +2049,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="13" t="s">
         <v>124</v>
@@ -2036,24 +2057,26 @@
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="O23" s="13"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="13" t="s">
         <v>125</v>
@@ -2061,11 +2084,19 @@
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="F24" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="8">
+        <v>20</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="18"/>
       <c r="O24" s="13"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -3140,27 +3171,47 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="13"/>
       <c r="C85" s="6"/>
       <c r="E85" s="31"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F85" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H85" s="30">
+        <v>1</v>
+      </c>
+      <c r="I85" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="13"/>
       <c r="C86" s="6"/>
       <c r="E86" s="31"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="F86" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H86" s="6">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -712,108 +712,6 @@
     <t>GrimReaper</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[[Exhausted]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Laziness)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Heavy]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Binding)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Vulnerability]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Vulnerable)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Powerless]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Weak)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Over-Power]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Over Power)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Under-Power]] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Strengthless)</t>
-    </r>
-  </si>
-  <si>
     <t># of effects on red area: On enemies.</t>
   </si>
   <si>
@@ -827,13 +725,31 @@
   </si>
   <si>
     <t>weakness: what is the class weakness</t>
+  </si>
+  <si>
+    <t>[[Exhausted]]</t>
+  </si>
+  <si>
+    <t>[[Heavy]]</t>
+  </si>
+  <si>
+    <t>[[Vulnerability]]</t>
+  </si>
+  <si>
+    <t>[[Over-Power]]</t>
+  </si>
+  <si>
+    <t>[[Under-Power]]</t>
+  </si>
+  <si>
+    <t>[[Powerless]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,15 +816,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1622,7 +1529,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2450,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2861,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,7 +2841,7 @@
       </c>
       <c r="Q1" s="1"/>
       <c r="S1" s="132" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2960,7 +2867,7 @@
       <c r="P2" s="120"/>
       <c r="Q2" s="1"/>
       <c r="S2" s="133" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.4">
@@ -2978,23 +2885,31 @@
       <c r="F3" s="109"/>
       <c r="G3" s="121"/>
       <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="I3" s="121">
+        <v>1</v>
+      </c>
       <c r="J3" s="121"/>
       <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
+      <c r="L3" s="121">
+        <v>1</v>
+      </c>
       <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
+      <c r="N3" s="121">
+        <v>1</v>
+      </c>
       <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
+      <c r="P3" s="121">
+        <v>1</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="S3" s="134" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="66" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C4" s="67" t="s">
         <v>46</v>
@@ -3008,9 +2923,13 @@
       <c r="H4" s="122"/>
       <c r="I4" s="122"/>
       <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
+      <c r="K4" s="122">
+        <v>1</v>
+      </c>
       <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
+      <c r="M4" s="122">
+        <v>1</v>
+      </c>
       <c r="N4" s="122"/>
       <c r="O4" s="122"/>
       <c r="P4" s="122"/>
@@ -3039,7 +2958,9 @@
       <c r="L5" s="122"/>
       <c r="M5" s="122"/>
       <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
+      <c r="O5" s="122">
+        <v>1</v>
+      </c>
       <c r="P5" s="122"/>
       <c r="Q5" s="1"/>
     </row>
@@ -3126,14 +3047,22 @@
       <c r="E9" s="84"/>
       <c r="F9" s="109"/>
       <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
+      <c r="H9" s="121">
+        <v>1</v>
+      </c>
+      <c r="I9" s="121">
+        <v>1</v>
+      </c>
       <c r="J9" s="121"/>
       <c r="K9" s="121"/>
       <c r="L9" s="121"/>
       <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
+      <c r="N9" s="121">
+        <v>1</v>
+      </c>
+      <c r="O9" s="121">
+        <v>1</v>
+      </c>
       <c r="P9" s="121"/>
       <c r="Q9" s="1"/>
     </row>
@@ -3153,10 +3082,18 @@
       <c r="G10" s="122"/>
       <c r="H10" s="122"/>
       <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
+      <c r="J10" s="122">
+        <v>1</v>
+      </c>
+      <c r="K10" s="122">
+        <v>1</v>
+      </c>
+      <c r="L10" s="122">
+        <v>1</v>
+      </c>
+      <c r="M10" s="122">
+        <v>1</v>
+      </c>
       <c r="N10" s="122"/>
       <c r="O10" s="122"/>
       <c r="P10" s="122"/>
@@ -3165,7 +3102,7 @@
     <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="99" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C11" s="100" t="s">
         <v>60</v>
@@ -3180,13 +3117,21 @@
       <c r="G11" s="127"/>
       <c r="H11" s="127"/>
       <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
+      <c r="J11" s="127">
+        <v>1</v>
+      </c>
       <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
+      <c r="L11" s="127">
+        <v>2</v>
+      </c>
       <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
+      <c r="N11" s="127">
+        <v>1</v>
+      </c>
       <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
+      <c r="P11" s="127">
+        <v>2</v>
+      </c>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3213,7 +3158,9 @@
       <c r="M12" s="127"/>
       <c r="N12" s="127"/>
       <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
+      <c r="P12" s="127">
+        <v>1</v>
+      </c>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3239,7 +3186,9 @@
       <c r="L13" s="127"/>
       <c r="M13" s="127"/>
       <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
+      <c r="O13" s="127">
+        <v>1</v>
+      </c>
       <c r="P13" s="127"/>
       <c r="Q13" s="1"/>
     </row>
@@ -3327,10 +3276,16 @@
       <c r="H17" s="122"/>
       <c r="I17" s="122"/>
       <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
+      <c r="K17" s="122">
+        <v>1</v>
+      </c>
+      <c r="L17" s="122">
+        <v>1</v>
+      </c>
       <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
+      <c r="N17" s="122">
+        <v>1</v>
+      </c>
       <c r="O17" s="122"/>
       <c r="P17" s="122"/>
       <c r="Q17" s="1"/>
@@ -3391,13 +3346,19 @@
       <c r="E20" s="88"/>
       <c r="F20" s="109"/>
       <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
+      <c r="H20" s="121">
+        <v>1</v>
+      </c>
       <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
+      <c r="J20" s="121">
+        <v>2</v>
+      </c>
       <c r="K20" s="121"/>
       <c r="L20" s="121"/>
       <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
+      <c r="N20" s="121">
+        <v>1</v>
+      </c>
       <c r="O20" s="121"/>
       <c r="P20" s="121"/>
       <c r="Q20" s="1"/>
@@ -3422,7 +3383,9 @@
       <c r="K21" s="122"/>
       <c r="L21" s="122"/>
       <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
+      <c r="N21" s="122">
+        <v>1</v>
+      </c>
       <c r="O21" s="122"/>
       <c r="P21" s="122"/>
       <c r="Q21" s="1"/>
@@ -3448,7 +3411,9 @@
       <c r="J22" s="122"/>
       <c r="K22" s="122"/>
       <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
+      <c r="M22" s="122">
+        <v>1</v>
+      </c>
       <c r="N22" s="122"/>
       <c r="O22" s="122"/>
       <c r="P22" s="122"/>
@@ -3474,10 +3439,14 @@
       <c r="I23" s="127"/>
       <c r="J23" s="127"/>
       <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
+      <c r="L23" s="127">
+        <v>1</v>
+      </c>
       <c r="M23" s="127"/>
       <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
+      <c r="O23" s="127">
+        <v>2</v>
+      </c>
       <c r="P23" s="127"/>
       <c r="Q23" s="1"/>
     </row>
@@ -3501,8 +3470,12 @@
       <c r="I24" s="122"/>
       <c r="J24" s="122"/>
       <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
+      <c r="L24" s="122">
+        <v>1</v>
+      </c>
+      <c r="M24" s="122">
+        <v>1</v>
+      </c>
       <c r="N24" s="122"/>
       <c r="O24" s="122"/>
       <c r="P24" s="122"/>
@@ -3532,7 +3505,9 @@
       <c r="M25" s="122"/>
       <c r="N25" s="122"/>
       <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
+      <c r="P25" s="122">
+        <v>1</v>
+      </c>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,12 +3570,18 @@
       <c r="G28" s="121"/>
       <c r="H28" s="121"/>
       <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
+      <c r="J28" s="121">
+        <v>1</v>
+      </c>
       <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
+      <c r="L28" s="121">
+        <v>1</v>
+      </c>
       <c r="M28" s="121"/>
       <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
+      <c r="O28" s="121">
+        <v>1</v>
+      </c>
       <c r="P28" s="121"/>
       <c r="Q28" s="1"/>
     </row>
@@ -3627,8 +3608,12 @@
       <c r="L29" s="121"/>
       <c r="M29" s="121"/>
       <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
+      <c r="O29" s="121">
+        <v>1</v>
+      </c>
+      <c r="P29" s="121">
+        <v>1</v>
+      </c>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3674,11 +3659,15 @@
       <c r="G31" s="121"/>
       <c r="H31" s="121"/>
       <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
+      <c r="J31" s="121">
+        <v>1</v>
+      </c>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
+      <c r="N31" s="121">
+        <v>1</v>
+      </c>
       <c r="O31" s="121"/>
       <c r="P31" s="121"/>
       <c r="Q31" s="1"/>
@@ -3686,7 +3675,7 @@
     <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="66" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C32" s="70" t="s">
         <v>28</v>
@@ -3696,14 +3685,24 @@
       </c>
       <c r="E32" s="69"/>
       <c r="F32" s="109"/>
-      <c r="G32" s="122"/>
+      <c r="G32" s="122">
+        <v>2</v>
+      </c>
       <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
+      <c r="I32" s="122">
+        <v>1</v>
+      </c>
+      <c r="J32" s="122">
+        <v>1</v>
+      </c>
+      <c r="K32" s="122">
+        <v>1</v>
+      </c>
       <c r="L32" s="122"/>
       <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
+      <c r="N32" s="122">
+        <v>1</v>
+      </c>
       <c r="O32" s="122"/>
       <c r="P32" s="122"/>
       <c r="Q32" s="1"/>
@@ -3775,7 +3774,9 @@
       <c r="H35" s="127"/>
       <c r="I35" s="127"/>
       <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
+      <c r="K35" s="127">
+        <v>1</v>
+      </c>
       <c r="L35" s="127"/>
       <c r="M35" s="127"/>
       <c r="N35" s="127"/>
@@ -3800,8 +3801,12 @@
       <c r="F36" s="109"/>
       <c r="G36" s="121"/>
       <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
+      <c r="I36" s="121">
+        <v>1</v>
+      </c>
+      <c r="J36" s="121">
+        <v>2</v>
+      </c>
       <c r="K36" s="121"/>
       <c r="L36" s="121"/>
       <c r="M36" s="121"/>
@@ -3827,7 +3832,9 @@
       <c r="F37" s="109"/>
       <c r="G37" s="127"/>
       <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
+      <c r="I37" s="127">
+        <v>1</v>
+      </c>
       <c r="J37" s="127"/>
       <c r="K37" s="127"/>
       <c r="L37" s="127"/>
@@ -3855,7 +3862,9 @@
       <c r="G38" s="121"/>
       <c r="H38" s="121"/>
       <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
+      <c r="J38" s="121">
+        <v>1</v>
+      </c>
       <c r="K38" s="121"/>
       <c r="L38" s="121"/>
       <c r="M38" s="121"/>
@@ -3909,7 +3918,7 @@
     <row r="41" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="86" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C41" s="87" t="s">
         <v>63</v>
@@ -3922,11 +3931,17 @@
       <c r="G41" s="121"/>
       <c r="H41" s="121"/>
       <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
+      <c r="J41" s="121">
+        <v>1</v>
+      </c>
       <c r="K41" s="121"/>
-      <c r="L41" s="121"/>
+      <c r="L41" s="121">
+        <v>1</v>
+      </c>
       <c r="M41" s="121"/>
-      <c r="N41" s="121"/>
+      <c r="N41" s="121">
+        <v>1</v>
+      </c>
       <c r="O41" s="121"/>
       <c r="P41" s="121"/>
       <c r="Q41" s="1"/>
@@ -3934,7 +3949,7 @@
     <row r="42" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="80" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C42" s="75" t="s">
         <v>78</v>
@@ -3948,7 +3963,9 @@
       <c r="H42" s="122"/>
       <c r="I42" s="122"/>
       <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
+      <c r="K42" s="122">
+        <v>1</v>
+      </c>
       <c r="L42" s="122"/>
       <c r="M42" s="122"/>
       <c r="N42" s="122"/>
@@ -3976,7 +3993,9 @@
       <c r="K43" s="121"/>
       <c r="L43" s="121"/>
       <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
+      <c r="N43" s="121">
+        <v>2</v>
+      </c>
       <c r="O43" s="121"/>
       <c r="P43" s="121"/>
       <c r="Q43" s="1"/>
@@ -4001,7 +4020,9 @@
       <c r="K44" s="121"/>
       <c r="L44" s="121"/>
       <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
+      <c r="N44" s="121">
+        <v>1</v>
+      </c>
       <c r="O44" s="121"/>
       <c r="P44" s="121"/>
       <c r="Q44" s="1"/>
@@ -4026,7 +4047,9 @@
       <c r="K45" s="121"/>
       <c r="L45" s="121"/>
       <c r="M45" s="121"/>
-      <c r="N45" s="121"/>
+      <c r="N45" s="121">
+        <v>1</v>
+      </c>
       <c r="O45" s="121"/>
       <c r="P45" s="121"/>
       <c r="Q45" s="1"/>
@@ -4059,7 +4082,7 @@
     <row r="47" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="66" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C47" s="70" t="s">
         <v>27</v>
@@ -4069,9 +4092,13 @@
       </c>
       <c r="E47" s="68"/>
       <c r="F47" s="109"/>
-      <c r="G47" s="122"/>
+      <c r="G47" s="122">
+        <v>1</v>
+      </c>
       <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
+      <c r="I47" s="122">
+        <v>1</v>
+      </c>
       <c r="J47" s="122"/>
       <c r="K47" s="122"/>
       <c r="L47" s="122"/>
@@ -4095,14 +4122,20 @@
       <c r="E48" s="76"/>
       <c r="F48" s="109"/>
       <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
+      <c r="H48" s="122">
+        <v>2</v>
+      </c>
+      <c r="I48" s="122">
+        <v>4</v>
+      </c>
       <c r="J48" s="122"/>
       <c r="K48" s="122"/>
       <c r="L48" s="122"/>
       <c r="M48" s="122"/>
       <c r="N48" s="122"/>
-      <c r="O48" s="122"/>
+      <c r="O48" s="122">
+        <v>2</v>
+      </c>
       <c r="P48" s="122"/>
       <c r="Q48" s="1"/>
     </row>
@@ -4126,7 +4159,9 @@
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
       <c r="K49" s="122"/>
-      <c r="L49" s="122"/>
+      <c r="L49" s="122">
+        <v>1</v>
+      </c>
       <c r="M49" s="122"/>
       <c r="N49" s="122"/>
       <c r="O49" s="122"/>
@@ -4527,12 +4562,12 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
     <sheet name="Effects(Specific)" sheetId="5" r:id="rId2"/>
     <sheet name="Effects(General)" sheetId="2" r:id="rId3"/>
     <sheet name="Glyph" sheetId="4" r:id="rId4"/>
-    <sheet name="Class Statistic" sheetId="6" r:id="rId5"/>
+    <sheet name="Summon" sheetId="7" r:id="rId5"/>
+    <sheet name="Class Statistic" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
   <si>
     <t>STATS</t>
   </si>
@@ -743,6 +744,429 @@
   </si>
   <si>
     <t>[[Powerless]]</t>
+  </si>
+  <si>
+    <t>Burning Ground</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>[[Damage: 25 fire ]]</t>
+  </si>
+  <si>
+    <t>Makibishi</t>
+  </si>
+  <si>
+    <t>Poisoned Makibishi</t>
+  </si>
+  <si>
+    <t>[[Damage:  25 ground ]]</t>
+  </si>
+  <si>
+    <t>Water Pillar</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Ground Pillar</t>
+  </si>
+  <si>
+    <t>Fire Pillar</t>
+  </si>
+  <si>
+    <t>Wind Pillar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Damage:  25 ground ]]                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Poison]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +10 levels (2 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Water]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Ground]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Fire]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Wind]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>Magic Barrier</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Make the cell unwalkable.</t>
+  </si>
+  <si>
+    <t>Living Ground</t>
+  </si>
+  <si>
+    <t>Fountain of Immortality</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Reanimated]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (00 turns)                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Incurable]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (00 turns)                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       [[Exhausted]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+1 levels (00 turns)                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[[Slowness]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+1 levels (00 turns)                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[[Blindness]] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+1 levels (00 turns)                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Phobia of Darkness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +100 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Damage: 40 ground ]]                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Slowness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +2 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t>Enchanted Fountain</t>
+  </si>
+  <si>
+    <t>On ennemy: [[Damage:  25 water ]]                              On allies: [[Heal: 50 water ]]</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caster and allies: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Over-Power]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +15 levels (While in the glyph)                                                                        Caster and allies: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Armor]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +15 levels      (While in the glyph)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Heavy]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (While in the area)</t>
+    </r>
+  </si>
+  <si>
+    <t>Force Field</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>Just a visual indication.</t>
   </si>
 </sst>
 </file>
@@ -1832,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,7 +4622,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4206,7 +4630,7 @@
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4223,87 +4647,172 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="5">
+        <f>-C16</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -4551,6 +5060,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B6"/>
   <sheetViews>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="206">
   <si>
     <t>STATS</t>
   </si>
@@ -50,12 +50,6 @@
     <t>[[Fighter Meditation]]</t>
   </si>
   <si>
-    <t>HP by %</t>
-  </si>
-  <si>
-    <t>Resistance by %</t>
-  </si>
-  <si>
     <t>Final damage by %</t>
   </si>
   <si>
@@ -77,18 +71,6 @@
     <t>Ground damage</t>
   </si>
   <si>
-    <t>Fire resistance</t>
-  </si>
-  <si>
-    <t>Water resistance</t>
-  </si>
-  <si>
-    <t>Wind resistance</t>
-  </si>
-  <si>
-    <t>Ground resistance</t>
-  </si>
-  <si>
     <t>AP</t>
   </si>
   <si>
@@ -240,9 +222,6 @@
   </si>
   <si>
     <t>[[Increase the next ''Liquid Kick'' skill damage by 20%]]                  ( * effect levels )                                                                                         (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Elementalist</t>
@@ -470,12 +449,6 @@
     <t>Increase the damage taken by the ''Katana'' skill.</t>
   </si>
   <si>
-    <t>Melee Damage by %</t>
-  </si>
-  <si>
-    <t>Ranged Damage by %</t>
-  </si>
-  <si>
     <t>[[Melee]]</t>
   </si>
   <si>
@@ -1167,6 +1140,45 @@
   </si>
   <si>
     <t>Just a visual indication.</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Fire resistance by %</t>
+  </si>
+  <si>
+    <t>Water resistance by %</t>
+  </si>
+  <si>
+    <t>Wind resistance by %</t>
+  </si>
+  <si>
+    <t>Ground resistance by %</t>
+  </si>
+  <si>
+    <t>Initial Max HP</t>
+  </si>
+  <si>
+    <t>Light damage</t>
+  </si>
+  <si>
+    <t>Dark damage</t>
+  </si>
+  <si>
+    <t>Light resistance by %</t>
+  </si>
+  <si>
+    <t>Dark resistance by %</t>
+  </si>
+  <si>
+    <t>Reflecting damage by %</t>
+  </si>
+  <si>
+    <t>Melee final Damage by %</t>
+  </si>
+  <si>
+    <t>Ranged final Damage by %</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,6 +1973,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2254,523 +2269,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="135" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="6"/>
+      <c r="B35" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2810,7 +2507,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2819,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -2832,10 +2529,10 @@
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -2848,10 +2545,10 @@
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5">
         <v>5</v>
@@ -2864,10 +2561,10 @@
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -2883,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
@@ -2896,290 +2593,290 @@
     <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D7" s="32">
         <v>1</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" s="23">
         <v>1</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D9" s="32">
         <v>1</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D10" s="36">
         <v>5</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="40" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D16" s="28">
         <v>1</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="37" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D17" s="39">
         <v>1</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D18" s="26">
         <v>1</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="40" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D22" s="28">
         <v>50</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="25" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D23" s="26">
         <v>1</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="21" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D24" s="23">
         <v>20</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F24" s="33"/>
     </row>
@@ -3192,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,49 +2927,49 @@
         <v>4</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="112" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L1" s="112" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M1" s="112" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O1" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>142</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="S1" s="132" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="42"/>
       <c r="C2" s="45" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="44"/>
@@ -3282,7 +2979,7 @@
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
       <c r="K2" s="45" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L2" s="120"/>
       <c r="M2" s="120"/>
@@ -3291,16 +2988,16 @@
       <c r="P2" s="120"/>
       <c r="Q2" s="1"/>
       <c r="S2" s="133" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24"/>
       <c r="B3" s="82" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" s="84">
         <v>10</v>
@@ -3327,16 +3024,16 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="S3" s="134" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="66" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D4" s="68">
         <v>10</v>
@@ -3362,16 +3059,16 @@
     <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="66" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D5" s="68">
         <v>1</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F5" s="109"/>
       <c r="G5" s="122"/>
@@ -3391,16 +3088,16 @@
     <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="71" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D6" s="73">
         <v>1</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F6" s="109"/>
       <c r="G6" s="122"/>
@@ -3438,7 +3135,7 @@
       <c r="A8" s="24"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
@@ -3448,7 +3145,7 @@
       <c r="I8" s="126"/>
       <c r="J8" s="126"/>
       <c r="K8" s="47" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L8" s="126"/>
       <c r="M8" s="126"/>
@@ -3460,10 +3157,10 @@
     <row r="9" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="82" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" s="84">
         <v>10</v>
@@ -3493,10 +3190,10 @@
     <row r="10" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="74" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" s="76">
         <v>10</v>
@@ -3526,16 +3223,16 @@
     <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="99" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D11" s="101">
         <v>1</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F11" s="109"/>
       <c r="G11" s="127"/>
@@ -3561,16 +3258,16 @@
     <row r="12" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="102" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D12" s="104">
         <v>1</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F12" s="109"/>
       <c r="G12" s="127"/>
@@ -3590,16 +3287,16 @@
     <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="105" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D13" s="107">
         <v>1</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F13" s="109"/>
       <c r="G13" s="127"/>
@@ -3639,7 +3336,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="113"/>
       <c r="C15" s="114" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D15" s="115"/>
       <c r="E15" s="116"/>
@@ -3649,7 +3346,7 @@
       <c r="I15" s="128"/>
       <c r="J15" s="128"/>
       <c r="K15" s="114" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L15" s="128"/>
       <c r="M15" s="128"/>
@@ -3661,10 +3358,10 @@
     <row r="16" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" s="84">
         <v>10</v>
@@ -3686,10 +3383,10 @@
     <row r="17" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="79">
         <v>100</v>
@@ -3737,7 +3434,7 @@
       <c r="A19" s="24"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="53"/>
@@ -3747,7 +3444,7 @@
       <c r="I19" s="129"/>
       <c r="J19" s="129"/>
       <c r="K19" s="51" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L19" s="129"/>
       <c r="M19" s="129"/>
@@ -3759,10 +3456,10 @@
     <row r="20" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="86" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D20" s="88">
         <v>100</v>
@@ -3790,10 +3487,10 @@
     <row r="21" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="66" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D21" s="68">
         <v>100</v>
@@ -3817,16 +3514,16 @@
     <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="74" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D22" s="76">
         <v>1</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F22" s="109"/>
       <c r="G22" s="122"/>
@@ -3846,16 +3543,16 @@
     <row r="23" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="102" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D23" s="104">
         <v>1</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F23" s="109"/>
       <c r="G23" s="127"/>
@@ -3877,16 +3574,16 @@
     <row r="24" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="74" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D24" s="76">
         <v>1</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F24" s="109"/>
       <c r="G24" s="122"/>
@@ -3908,16 +3605,16 @@
     <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="71" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D25" s="73">
         <v>1</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F25" s="109"/>
       <c r="G25" s="122"/>
@@ -3957,7 +3654,7 @@
       <c r="A27" s="24"/>
       <c r="B27" s="54"/>
       <c r="C27" s="55" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="57"/>
@@ -3967,7 +3664,7 @@
       <c r="I27" s="130"/>
       <c r="J27" s="130"/>
       <c r="K27" s="55" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L27" s="130"/>
       <c r="M27" s="130"/>
@@ -3979,16 +3676,16 @@
     <row r="28" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="86" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D28" s="88">
         <v>1</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F28" s="109"/>
       <c r="G28" s="121"/>
@@ -4012,16 +3709,16 @@
     <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="89" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D29" s="91">
         <v>1</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F29" s="109"/>
       <c r="G29" s="121"/>
@@ -4043,16 +3740,16 @@
     <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="89" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D30" s="92">
         <v>1</v>
       </c>
       <c r="E30" s="92" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F30" s="109"/>
       <c r="G30" s="121"/>
@@ -4070,10 +3767,10 @@
     <row r="31" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="93" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C31" s="94" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D31" s="92">
         <v>100</v>
@@ -4099,10 +3796,10 @@
     <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="66" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D32" s="68">
         <v>100</v>
@@ -4134,10 +3831,10 @@
     <row r="33" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="66" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D33" s="68">
         <v>100</v>
@@ -4159,10 +3856,10 @@
     <row r="34" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="74" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D34" s="76">
         <v>100</v>
@@ -4184,10 +3881,10 @@
     <row r="35" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="102" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C35" s="103" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D35" s="104">
         <v>50</v>
@@ -4211,16 +3908,16 @@
     <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D36" s="92">
         <v>3</v>
       </c>
       <c r="E36" s="92" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F36" s="109"/>
       <c r="G36" s="121"/>
@@ -4242,16 +3939,16 @@
     <row r="37" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="117" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C37" s="118" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D37" s="119">
         <v>1</v>
       </c>
       <c r="E37" s="119" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F37" s="109"/>
       <c r="G37" s="127"/>
@@ -4271,16 +3968,16 @@
     <row r="38" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="95" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D38" s="97">
         <v>100</v>
       </c>
       <c r="E38" s="97" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F38" s="109"/>
       <c r="G38" s="121"/>
@@ -4320,7 +4017,7 @@
       <c r="A40" s="24"/>
       <c r="B40" s="58"/>
       <c r="C40" s="59" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D40" s="60"/>
       <c r="E40" s="61"/>
@@ -4330,7 +4027,7 @@
       <c r="I40" s="131"/>
       <c r="J40" s="131"/>
       <c r="K40" s="59" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L40" s="131"/>
       <c r="M40" s="131"/>
@@ -4342,10 +4039,10 @@
     <row r="41" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="86" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D41" s="88">
         <v>100</v>
@@ -4373,10 +4070,10 @@
     <row r="42" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="80" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D42" s="76">
         <v>100</v>
@@ -4400,10 +4097,10 @@
     <row r="43" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="93" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D43" s="92">
         <v>100</v>
@@ -4427,10 +4124,10 @@
     <row r="44" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C44" s="94" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D44" s="92">
         <v>100</v>
@@ -4454,10 +4151,10 @@
     <row r="45" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="93" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D45" s="92">
         <v>100</v>
@@ -4481,10 +4178,10 @@
     <row r="46" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="93" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D46" s="98">
         <v>1000</v>
@@ -4506,10 +4203,10 @@
     <row r="47" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="66" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D47" s="81">
         <v>1000</v>
@@ -4535,10 +4232,10 @@
     <row r="48" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D48" s="76">
         <v>100</v>
@@ -4566,16 +4263,16 @@
     <row r="49" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="71" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D49" s="73">
         <v>100</v>
       </c>
       <c r="E49" s="73" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F49" s="111"/>
       <c r="G49" s="122"/>
@@ -4636,182 +4333,182 @@
     <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C9" s="5">
         <f>-C16</f>
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5083,12 +4780,12 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Summon" sheetId="7" r:id="rId5"/>
     <sheet name="Class Statistic" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="204">
   <si>
     <t>STATS</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Effects</t>
   </si>
   <si>
-    <t>[[Punch]]</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>Range</t>
   </si>
   <si>
-    <t xml:space="preserve">  [[Precision Strike]]</t>
-  </si>
-  <si>
-    <t>[[Kick]]</t>
-  </si>
-  <si>
     <t>[[Vitality]]</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>[[Increase the next ''Cursed Arrow'' skill damage]]                                [[Increase the ''Poison Arrow'' poison duration]]                             (Can't be unbuffed)</t>
   </si>
   <si>
-    <t>Increase the damage taken by the ''Precision Strike'' skill.            (Can't be unbuffed)</t>
-  </si>
-  <si>
     <t>Allow some of the Ninja skills to poison his target.                                       (Can't be unbuffed)</t>
   </si>
   <si>
@@ -216,12 +204,6 @@
   </si>
   <si>
     <t>[[Can't summon playable summoning]]                                               (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Increase the next ''Iron Punch'' skill damage by 20%]]                  ( * effect levels )                                                                                         (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Increase the next ''Liquid Kick'' skill damage by 20%]]                  ( * effect levels )                                                                                         (Can't be unbuffed)</t>
   </si>
   <si>
     <t>Elementalist</t>
@@ -1180,12 +1162,24 @@
   <si>
     <t>Ranged final Damage by %</t>
   </si>
+  <si>
+    <t>Add more</t>
+  </si>
+  <si>
+    <t>add more</t>
+  </si>
+  <si>
+    <t>REMOVE?</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,8 +1259,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,8 +1378,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1570,11 +1600,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,8 +2025,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="17" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2268,14 +2322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -2290,139 +2344,139 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="135" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="34" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2475,14 +2529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
@@ -2498,387 +2552,339 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="5">
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="32">
-        <v>1</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="33"/>
+      <c r="B9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="B10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="5">
         <v>5</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
+      <c r="B13" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="B14" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="39">
         <v>1</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="26">
         <v>1</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="28">
+      <c r="C16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="39">
+      <c r="C17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="26">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
+      <c r="B19" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="28">
+        <v>50</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="28">
-        <v>50</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="26">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="B21" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="23">
         <v>20</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="33"/>
+      <c r="E21" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2886,14 +2892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
@@ -2921,55 +2927,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="41" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L1" s="112" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M1" s="112" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="S1" s="132" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="42"/>
       <c r="C2" s="45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="44"/>
@@ -2979,7 +2985,7 @@
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
       <c r="K2" s="45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L2" s="120"/>
       <c r="M2" s="120"/>
@@ -2988,16 +2994,16 @@
       <c r="P2" s="120"/>
       <c r="Q2" s="1"/>
       <c r="S2" s="133" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24"/>
       <c r="B3" s="82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="84">
         <v>10</v>
@@ -3024,16 +3030,16 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="S3" s="134" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="66" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="68">
         <v>10</v>
@@ -3059,16 +3065,16 @@
     <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="66" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" s="68">
         <v>1</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F5" s="109"/>
       <c r="G5" s="122"/>
@@ -3088,16 +3094,16 @@
     <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="73">
         <v>1</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F6" s="109"/>
       <c r="G6" s="122"/>
@@ -3111,6 +3117,9 @@
       <c r="O6" s="122"/>
       <c r="P6" s="122"/>
       <c r="Q6" s="1"/>
+      <c r="S6" s="138" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
@@ -3135,7 +3144,7 @@
       <c r="A8" s="24"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
@@ -3145,7 +3154,7 @@
       <c r="I8" s="126"/>
       <c r="J8" s="126"/>
       <c r="K8" s="47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L8" s="126"/>
       <c r="M8" s="126"/>
@@ -3157,10 +3166,10 @@
     <row r="9" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="84">
         <v>10</v>
@@ -3190,10 +3199,10 @@
     <row r="10" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="76">
         <v>10</v>
@@ -3223,16 +3232,16 @@
     <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="99" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="101">
         <v>1</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F11" s="109"/>
       <c r="G11" s="127"/>
@@ -3258,16 +3267,16 @@
     <row r="12" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="102" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D12" s="104">
         <v>1</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F12" s="109"/>
       <c r="G12" s="127"/>
@@ -3287,16 +3296,16 @@
     <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="105" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D13" s="107">
         <v>1</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F13" s="109"/>
       <c r="G13" s="127"/>
@@ -3336,7 +3345,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="113"/>
       <c r="C15" s="114" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D15" s="115"/>
       <c r="E15" s="116"/>
@@ -3346,7 +3355,7 @@
       <c r="I15" s="128"/>
       <c r="J15" s="128"/>
       <c r="K15" s="114" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L15" s="128"/>
       <c r="M15" s="128"/>
@@ -3358,10 +3367,10 @@
     <row r="16" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="84">
         <v>10</v>
@@ -3379,14 +3388,17 @@
       <c r="O16" s="121"/>
       <c r="P16" s="121"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S16" s="138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="79">
         <v>100</v>
@@ -3411,7 +3423,7 @@
       <c r="P17" s="122"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63"/>
@@ -3430,11 +3442,11 @@
       <c r="P18" s="125"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="53"/>
@@ -3444,7 +3456,7 @@
       <c r="I19" s="129"/>
       <c r="J19" s="129"/>
       <c r="K19" s="51" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L19" s="129"/>
       <c r="M19" s="129"/>
@@ -3453,13 +3465,13 @@
       <c r="P19" s="129"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="87" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>23</v>
       </c>
       <c r="D20" s="88">
         <v>100</v>
@@ -3484,13 +3496,13 @@
       <c r="P20" s="121"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="66" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D21" s="68">
         <v>100</v>
@@ -3510,23 +3522,28 @@
       <c r="O21" s="122"/>
       <c r="P21" s="122"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S21" s="138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="74" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D22" s="76">
         <v>1</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F22" s="109"/>
-      <c r="G22" s="122"/>
+      <c r="G22" s="122">
+        <v>1</v>
+      </c>
       <c r="H22" s="122"/>
       <c r="I22" s="122"/>
       <c r="J22" s="122"/>
@@ -3539,20 +3556,23 @@
       <c r="O22" s="122"/>
       <c r="P22" s="122"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S22" s="138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="102" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D23" s="104">
         <v>1</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F23" s="109"/>
       <c r="G23" s="127"/>
@@ -3571,19 +3591,19 @@
       <c r="P23" s="127"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="74" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D24" s="76">
         <v>1</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F24" s="109"/>
       <c r="G24" s="122"/>
@@ -3602,19 +3622,19 @@
       <c r="P24" s="122"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="71" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D25" s="73">
         <v>1</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F25" s="109"/>
       <c r="G25" s="122"/>
@@ -3631,7 +3651,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="62"/>
       <c r="C26" s="63"/>
@@ -3650,11 +3670,11 @@
       <c r="P26" s="125"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="54"/>
       <c r="C27" s="55" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="57"/>
@@ -3664,7 +3684,7 @@
       <c r="I27" s="130"/>
       <c r="J27" s="130"/>
       <c r="K27" s="55" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L27" s="130"/>
       <c r="M27" s="130"/>
@@ -3673,19 +3693,19 @@
       <c r="P27" s="130"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="86" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28" s="88">
         <v>1</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F28" s="109"/>
       <c r="G28" s="121"/>
@@ -3706,19 +3726,19 @@
       <c r="P28" s="121"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="89" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D29" s="91">
         <v>1</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F29" s="109"/>
       <c r="G29" s="121"/>
@@ -3737,19 +3757,19 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="89" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D30" s="92">
         <v>1</v>
       </c>
       <c r="E30" s="92" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F30" s="109"/>
       <c r="G30" s="121"/>
@@ -3763,14 +3783,17 @@
       <c r="O30" s="121"/>
       <c r="P30" s="121"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S30" s="138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="92">
         <v>100</v>
@@ -3793,13 +3816,13 @@
       <c r="P31" s="121"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="66" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="68">
         <v>100</v>
@@ -3827,14 +3850,17 @@
       <c r="O32" s="122"/>
       <c r="P32" s="122"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="137" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D33" s="68">
         <v>100</v>
@@ -3852,14 +3878,17 @@
       <c r="O33" s="122"/>
       <c r="P33" s="122"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="74" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D34" s="76">
         <v>100</v>
@@ -3877,14 +3906,17 @@
       <c r="O34" s="122"/>
       <c r="P34" s="122"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="102" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C35" s="103" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D35" s="104">
         <v>50</v>
@@ -3904,20 +3936,23 @@
       <c r="O35" s="127"/>
       <c r="P35" s="127"/>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S35" s="136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="93" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D36" s="92">
         <v>3</v>
       </c>
       <c r="E36" s="92" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F36" s="109"/>
       <c r="G36" s="121"/>
@@ -3936,19 +3971,19 @@
       <c r="P36" s="121"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="117" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37" s="118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D37" s="119">
         <v>1</v>
       </c>
       <c r="E37" s="119" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F37" s="109"/>
       <c r="G37" s="127"/>
@@ -3965,19 +4000,19 @@
       <c r="P37" s="127"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="95" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="97">
         <v>100</v>
       </c>
       <c r="E38" s="97" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F38" s="109"/>
       <c r="G38" s="121"/>
@@ -3994,7 +4029,7 @@
       <c r="P38" s="121"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="62"/>
       <c r="C39" s="63"/>
@@ -4013,11 +4048,11 @@
       <c r="P39" s="125"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="58"/>
       <c r="C40" s="59" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D40" s="60"/>
       <c r="E40" s="61"/>
@@ -4027,7 +4062,7 @@
       <c r="I40" s="131"/>
       <c r="J40" s="131"/>
       <c r="K40" s="59" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L40" s="131"/>
       <c r="M40" s="131"/>
@@ -4036,13 +4071,13 @@
       <c r="P40" s="131"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="86" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D41" s="88">
         <v>100</v>
@@ -4067,20 +4102,22 @@
       <c r="P41" s="121"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="80" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D42" s="76">
         <v>100</v>
       </c>
       <c r="E42" s="76"/>
       <c r="F42" s="109"/>
-      <c r="G42" s="122"/>
+      <c r="G42" s="122">
+        <v>1</v>
+      </c>
       <c r="H42" s="122"/>
       <c r="I42" s="122"/>
       <c r="J42" s="122"/>
@@ -4093,14 +4130,17 @@
       <c r="O42" s="122"/>
       <c r="P42" s="122"/>
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S42" s="138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="93" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D43" s="92">
         <v>100</v>
@@ -4120,14 +4160,17 @@
       <c r="O43" s="121"/>
       <c r="P43" s="121"/>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S43" s="138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="93" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C44" s="94" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D44" s="92">
         <v>100</v>
@@ -4147,21 +4190,26 @@
       <c r="O44" s="121"/>
       <c r="P44" s="121"/>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S44" s="138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="93" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D45" s="92">
         <v>100</v>
       </c>
       <c r="E45" s="92"/>
       <c r="F45" s="109"/>
-      <c r="G45" s="121"/>
+      <c r="G45" s="121">
+        <v>1</v>
+      </c>
       <c r="H45" s="121"/>
       <c r="I45" s="121"/>
       <c r="J45" s="121"/>
@@ -4174,21 +4222,26 @@
       <c r="O45" s="121"/>
       <c r="P45" s="121"/>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S45" s="138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D46" s="98">
         <v>1000</v>
       </c>
       <c r="E46" s="92"/>
       <c r="F46" s="109"/>
-      <c r="G46" s="121"/>
+      <c r="G46" s="121">
+        <v>1</v>
+      </c>
       <c r="H46" s="121"/>
       <c r="I46" s="121"/>
       <c r="J46" s="121"/>
@@ -4199,14 +4252,17 @@
       <c r="O46" s="121"/>
       <c r="P46" s="121"/>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S46" s="138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="66" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D47" s="81">
         <v>1000</v>
@@ -4229,13 +4285,13 @@
       <c r="P47" s="122"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D48" s="76">
         <v>100</v>
@@ -4263,16 +4319,16 @@
     <row r="49" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D49" s="73">
         <v>100</v>
       </c>
       <c r="E49" s="73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F49" s="111"/>
       <c r="G49" s="122"/>
@@ -4315,14 +4371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -4333,182 +4389,182 @@
     <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C9" s="5">
         <f>-C16</f>
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,35 +4813,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3378,7 +3378,9 @@
       <c r="E16" s="84"/>
       <c r="F16" s="109"/>
       <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
+      <c r="H16" s="121">
+        <v>1</v>
+      </c>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
       <c r="K16" s="121"/>
@@ -3406,7 +3408,9 @@
       <c r="E17" s="79"/>
       <c r="F17" s="109"/>
       <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
+      <c r="H17" s="122">
+        <v>1</v>
+      </c>
       <c r="I17" s="122"/>
       <c r="J17" s="122"/>
       <c r="K17" s="122">

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="203">
   <si>
     <t>STATS</t>
   </si>
@@ -182,16 +182,10 @@
     <t>Prevent movement caused by skills</t>
   </si>
   <si>
-    <t>[[Will Of Destruction]]</t>
-  </si>
-  <si>
     <t>Guardian</t>
   </si>
   <si>
     <t>[[Increase final damage by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>Prevent the usage of some skills of the Guardian.                       (Can't be unbuffed)</t>
   </si>
   <si>
     <t>[[Increase the next ''Cursed Arrow'' skill damage]]                                [[Increase the ''Poison Arrow'' poison duration]]                             (Can't be unbuffed)</t>
@@ -1173,6 +1167,9 @@
   </si>
   <si>
     <t>reduce</t>
+  </si>
+  <si>
+    <t>Sort de switch les etats elementaired'une cible</t>
   </si>
 </sst>
 </file>
@@ -2362,13 +2359,13 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2386,13 +2383,13 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,55 +2425,55 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2543,7 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -2561,16 +2558,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -2580,13 +2577,13 @@
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -2596,13 +2593,13 @@
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="32">
         <v>1</v>
@@ -2612,13 +2609,13 @@
       </c>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="23">
         <v>1</v>
@@ -2628,263 +2625,250 @@
       </c>
       <c r="F5" s="33"/>
     </row>
-    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="32">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="36">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="B7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D10" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="28">
+        <v>50</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="23">
+        <v>20</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="28">
-        <v>1</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="39">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="26">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="28">
-        <v>50</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="26">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="23">
-        <v>20</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="33"/>
+      <c r="F20" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2895,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="112" t="s">
@@ -2946,36 +2930,36 @@
         <v>45</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L1" s="112" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M1" s="112" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="S1" s="132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="42"/>
       <c r="C2" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="44"/>
@@ -2985,7 +2969,7 @@
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
       <c r="K2" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L2" s="120"/>
       <c r="M2" s="120"/>
@@ -2994,7 +2978,7 @@
       <c r="P2" s="120"/>
       <c r="Q2" s="1"/>
       <c r="S2" s="133" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.4">
@@ -3030,13 +3014,13 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="S3" s="134" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="67" t="s">
         <v>37</v>
@@ -3065,16 +3049,16 @@
     <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="68">
         <v>1</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="109"/>
       <c r="G5" s="122"/>
@@ -3097,13 +3081,13 @@
         <v>40</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="73">
         <v>1</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="109"/>
       <c r="G6" s="122"/>
@@ -3118,7 +3102,7 @@
       <c r="P6" s="122"/>
       <c r="Q6" s="1"/>
       <c r="S6" s="138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3144,7 +3128,7 @@
       <c r="A8" s="24"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
@@ -3154,7 +3138,7 @@
       <c r="I8" s="126"/>
       <c r="J8" s="126"/>
       <c r="K8" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L8" s="126"/>
       <c r="M8" s="126"/>
@@ -3232,7 +3216,7 @@
     <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="99" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="100" t="s">
         <v>51</v>
@@ -3241,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="109"/>
       <c r="G11" s="127"/>
@@ -3267,16 +3251,16 @@
     <row r="12" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="102" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D12" s="104">
         <v>1</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="109"/>
       <c r="G12" s="127"/>
@@ -3296,16 +3280,16 @@
     <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="105" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="107">
         <v>1</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="109"/>
       <c r="G13" s="127"/>
@@ -3345,7 +3329,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="113"/>
       <c r="C15" s="114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" s="115"/>
       <c r="E15" s="116"/>
@@ -3355,7 +3339,7 @@
       <c r="I15" s="128"/>
       <c r="J15" s="128"/>
       <c r="K15" s="114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L15" s="128"/>
       <c r="M15" s="128"/>
@@ -3391,7 +3375,7 @@
       <c r="P16" s="121"/>
       <c r="Q16" s="1"/>
       <c r="S16" s="138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,7 +3434,7 @@
       <c r="A19" s="24"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="53"/>
@@ -3460,7 +3444,7 @@
       <c r="I19" s="129"/>
       <c r="J19" s="129"/>
       <c r="K19" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L19" s="129"/>
       <c r="M19" s="129"/>
@@ -3503,10 +3487,10 @@
     <row r="21" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="68">
         <v>100</v>
@@ -3527,22 +3511,22 @@
       <c r="P21" s="122"/>
       <c r="Q21" s="1"/>
       <c r="S21" s="138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="76">
         <v>1</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" s="109"/>
       <c r="G22" s="122">
@@ -3561,22 +3545,22 @@
       <c r="P22" s="122"/>
       <c r="Q22" s="1"/>
       <c r="S22" s="138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="102" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="104">
         <v>1</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="109"/>
       <c r="G23" s="127"/>
@@ -3598,16 +3582,16 @@
     <row r="24" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" s="76">
         <v>1</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F24" s="109"/>
       <c r="G24" s="122"/>
@@ -3629,16 +3613,16 @@
     <row r="25" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D25" s="73">
         <v>1</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F25" s="109"/>
       <c r="G25" s="122"/>
@@ -3678,7 +3662,7 @@
       <c r="A27" s="24"/>
       <c r="B27" s="54"/>
       <c r="C27" s="55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="57"/>
@@ -3688,7 +3672,7 @@
       <c r="I27" s="130"/>
       <c r="J27" s="130"/>
       <c r="K27" s="55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L27" s="130"/>
       <c r="M27" s="130"/>
@@ -3703,13 +3687,13 @@
         <v>48</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="88">
         <v>1</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F28" s="109"/>
       <c r="G28" s="121"/>
@@ -3733,16 +3717,16 @@
     <row r="29" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="89" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" s="91">
         <v>1</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F29" s="109"/>
       <c r="G29" s="121"/>
@@ -3764,16 +3748,16 @@
     <row r="30" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" s="90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30" s="92">
         <v>1</v>
       </c>
       <c r="E30" s="92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F30" s="109"/>
       <c r="G30" s="121"/>
@@ -3788,7 +3772,7 @@
       <c r="P30" s="121"/>
       <c r="Q30" s="1"/>
       <c r="S30" s="138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -3823,7 +3807,7 @@
     <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C32" s="70" t="s">
         <v>19</v>
@@ -3855,16 +3839,16 @@
       <c r="P32" s="122"/>
       <c r="Q32" s="1"/>
       <c r="S32" s="137" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="68">
         <v>100</v>
@@ -3883,16 +3867,16 @@
       <c r="P33" s="122"/>
       <c r="Q33" s="1"/>
       <c r="S33" s="136" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" s="76">
         <v>100</v>
@@ -3911,16 +3895,16 @@
       <c r="P34" s="122"/>
       <c r="Q34" s="1"/>
       <c r="S34" s="136" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" s="104">
         <v>50</v>
@@ -3941,7 +3925,7 @@
       <c r="P35" s="127"/>
       <c r="Q35" s="1"/>
       <c r="S35" s="136" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3956,7 +3940,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F36" s="109"/>
       <c r="G36" s="121"/>
@@ -3987,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="119" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F37" s="109"/>
       <c r="G37" s="127"/>
@@ -4016,7 +4000,7 @@
         <v>100</v>
       </c>
       <c r="E38" s="97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F38" s="109"/>
       <c r="G38" s="121"/>
@@ -4056,7 +4040,7 @@
       <c r="A40" s="24"/>
       <c r="B40" s="58"/>
       <c r="C40" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" s="60"/>
       <c r="E40" s="61"/>
@@ -4066,7 +4050,7 @@
       <c r="I40" s="131"/>
       <c r="J40" s="131"/>
       <c r="K40" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L40" s="131"/>
       <c r="M40" s="131"/>
@@ -4078,10 +4062,10 @@
     <row r="41" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="88">
         <v>100</v>
@@ -4109,10 +4093,10 @@
     <row r="42" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42" s="76">
         <v>100</v>
@@ -4135,16 +4119,16 @@
       <c r="P42" s="122"/>
       <c r="Q42" s="1"/>
       <c r="S42" s="138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" s="94" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="92">
         <v>100</v>
@@ -4165,16 +4149,16 @@
       <c r="P43" s="121"/>
       <c r="Q43" s="1"/>
       <c r="S43" s="138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C44" s="94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="92">
         <v>100</v>
@@ -4195,16 +4179,16 @@
       <c r="P44" s="121"/>
       <c r="Q44" s="1"/>
       <c r="S44" s="138" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="92">
         <v>100</v>
@@ -4227,7 +4211,7 @@
       <c r="P45" s="121"/>
       <c r="Q45" s="1"/>
       <c r="S45" s="138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4257,13 +4241,13 @@
       <c r="P46" s="121"/>
       <c r="Q46" s="1"/>
       <c r="S46" s="138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" s="70" t="s">
         <v>18</v>
@@ -4323,16 +4307,16 @@
     <row r="49" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" s="73">
         <v>100</v>
       </c>
       <c r="E49" s="73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" s="111"/>
       <c r="G49" s="122"/>
@@ -4393,182 +4377,182 @@
     <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="5">
         <f>-C16</f>
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4840,12 +4824,12 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="183">
   <si>
     <t>STATS</t>
   </si>
@@ -203,18 +203,6 @@
     <t>Elementalist</t>
   </si>
   <si>
-    <t>[[Water]]</t>
-  </si>
-  <si>
-    <t>[[Ground]]</t>
-  </si>
-  <si>
-    <t>[[Fire]]</t>
-  </si>
-  <si>
-    <t>[[Wind]]</t>
-  </si>
-  <si>
     <t>[[Reduce final damage by 1%]]    ( * effect levels )</t>
   </si>
   <si>
@@ -227,21 +215,12 @@
     <t>description</t>
   </si>
   <si>
-    <t>[[Natural Resistance]]</t>
-  </si>
-  <si>
     <t>[[Elemental Protection]]</t>
   </si>
   <si>
     <t>Immunity from the Elementalist skills and his "Pillar"                  (Can't be unbuffed)</t>
   </si>
   <si>
-    <t xml:space="preserve">       [[Increase water,ground,fire and wind resistance by 1%]]    [[Reduce light and dark resistance by 2%]]                                             ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Elemental Backfire]]</t>
-  </si>
-  <si>
     <t>[[Zombification]]</t>
   </si>
   <si>
@@ -258,21 +237,6 @@
   </si>
   <si>
     <t>[[Reduce Max HP by 1% initial Max HP]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Phobia of Darkness]]</t>
-  </si>
-  <si>
-    <t>[[Phobia of Light]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       [[Reduce light resistance by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       [[Reduce dark resistance by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Self Consumption]]</t>
   </si>
   <si>
     <t>[[Imbolc]]</t>
@@ -458,21 +422,9 @@
     </r>
   </si>
   <si>
-    <t>[[Return 1% of the damage dealt in Dark-type damage]]                             (Can't be unbuffed)</t>
-  </si>
-  <si>
     <t>[[Preparation]]</t>
   </si>
   <si>
-    <t>Used by the ''Natural Disaster'' skill to remove AP                         (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to remove MP                                (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to remove Range                                 (Can't be unbuffed)</t>
-  </si>
-  <si>
     <t>[[Invulnerable (Melee)]]</t>
   </si>
   <si>
@@ -512,9 +464,153 @@
     <t>[[Red Moon]]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Increase a random element effect of an entity dealing damage to the entity with this effect.                                                                       ---------------------------------------------------------------------                                                                          20% chance: [[ </t>
-    </r>
+    <t>All skills damage steal life, they steal ratio increase by 100%                                                                                     (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t>[[Power Supply]]</t>
+  </si>
+  <si>
+    <t>Allow the usage of some Cyborg skills                                                         (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Self-Destruction Countdown]]</t>
+  </si>
+  <si>
+    <t>When effect is removed, entity K/O.                                                                      (Can't be unbuffed)</t>
+  </si>
+  <si>
+    <t>[[Checkpoint]]</t>
+  </si>
+  <si>
+    <t>Save the position when gaining this effect.                                              Teleport to the saved position at the end of the turn and remove the ''Checkpoint Glyph''                                                                     If can't be teleported: [[Damage: 100 light]]</t>
+  </si>
+  <si>
+    <t>[[Increase ranged final damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Increase melee final damage by 1%]]    ( * effect levels )</t>
+  </si>
+  <si>
+    <t>[[Increase next skill final damage by 1%]]   ( * effect levels )</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>MOVEMENT</t>
+  </si>
+  <si>
+    <t>SIGHT</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>PROTECTION</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>GrimReaper</t>
+  </si>
+  <si>
+    <t># of effects on red area: On enemies.</t>
+  </si>
+  <si>
+    <t># of effects on green area: On self or allies.</t>
+  </si>
+  <si>
+    <t>Class # of effect Note:</t>
+  </si>
+  <si>
+    <t>note: more axed damage,protection etc</t>
+  </si>
+  <si>
+    <t>weakness: what is the class weakness</t>
+  </si>
+  <si>
+    <t>[[Exhausted]]</t>
+  </si>
+  <si>
+    <t>[[Heavy]]</t>
+  </si>
+  <si>
+    <t>[[Vulnerability]]</t>
+  </si>
+  <si>
+    <t>[[Over-Power]]</t>
+  </si>
+  <si>
+    <t>[[Under-Power]]</t>
+  </si>
+  <si>
+    <t>[[Powerless]]</t>
+  </si>
+  <si>
+    <t>Burning Ground</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>[[Damage: 25 fire ]]</t>
+  </si>
+  <si>
+    <t>Makibishi</t>
+  </si>
+  <si>
+    <t>Poisoned Makibishi</t>
+  </si>
+  <si>
+    <t>[[Damage:  25 ground ]]</t>
+  </si>
+  <si>
+    <t>Water Pillar</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Ground Pillar</t>
+  </si>
+  <si>
+    <t>Fire Pillar</t>
+  </si>
+  <si>
+    <t>Wind Pillar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[[Damage:  25 ground ]]                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[[Poison]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +10 levels (2 turns)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -535,8 +631,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> +1 level ]] (00 turns)                                         20% chance: [[ </t>
-    </r>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -557,8 +655,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> +1 level ]] (00 turns)                                       20% chance: [[ </t>
-    </r>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -579,8 +679,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> +1 level ]] (00 turns)                                 20% chance: [[ </t>
-    </r>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -601,252 +703,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> +1 level ]] (00 turns)                                               20% chance: [[ - ]]</t>
-    </r>
-  </si>
-  <si>
-    <t>All skills damage steal life, they steal ratio increase by 100%                                                                                     (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>Cyborg</t>
-  </si>
-  <si>
-    <t>[[Power Supply]]</t>
-  </si>
-  <si>
-    <t>Allow the usage of some Cyborg skills                                                         (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Self-Destruction Countdown]]</t>
-  </si>
-  <si>
-    <t>When effect is removed, entity K/O.                                                                      (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Checkpoint]]</t>
-  </si>
-  <si>
-    <t>Save the position when gaining this effect.                                              Teleport to the saved position at the end of the turn and remove the ''Checkpoint Glyph''                                                                     If can't be teleported: [[Damage: 100 light]]</t>
-  </si>
-  <si>
-    <t>Used by the ''Natural Disaster'' skill to inflicts Fire-type damage                                                                                                            (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Increase ranged final damage by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Increase melee final damage by 1%]]    ( * effect levels )</t>
-  </si>
-  <si>
-    <t>[[Increase next skill final damage by 1%]]   ( * effect levels )</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>MOVEMENT</t>
-  </si>
-  <si>
-    <t>SIGHT</t>
-  </si>
-  <si>
-    <t>LIFE</t>
-  </si>
-  <si>
-    <t>PROTECTION</t>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-  </si>
-  <si>
-    <t>GrimReaper</t>
-  </si>
-  <si>
-    <t># of effects on red area: On enemies.</t>
-  </si>
-  <si>
-    <t># of effects on green area: On self or allies.</t>
-  </si>
-  <si>
-    <t>Class # of effect Note:</t>
-  </si>
-  <si>
-    <t>note: more axed damage,protection etc</t>
-  </si>
-  <si>
-    <t>weakness: what is the class weakness</t>
-  </si>
-  <si>
-    <t>[[Exhausted]]</t>
-  </si>
-  <si>
-    <t>[[Heavy]]</t>
-  </si>
-  <si>
-    <t>[[Vulnerability]]</t>
-  </si>
-  <si>
-    <t>[[Over-Power]]</t>
-  </si>
-  <si>
-    <t>[[Under-Power]]</t>
-  </si>
-  <si>
-    <t>[[Powerless]]</t>
-  </si>
-  <si>
-    <t>Burning Ground</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>[[Damage: 25 fire ]]</t>
-  </si>
-  <si>
-    <t>Makibishi</t>
-  </si>
-  <si>
-    <t>Poisoned Makibishi</t>
-  </si>
-  <si>
-    <t>[[Damage:  25 ground ]]</t>
-  </si>
-  <si>
-    <t>Water Pillar</t>
-  </si>
-  <si>
-    <t>Passive</t>
-  </si>
-  <si>
-    <t>Ground Pillar</t>
-  </si>
-  <si>
-    <t>Fire Pillar</t>
-  </si>
-  <si>
-    <t>Wind Pillar</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Damage:  25 ground ]]                                                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Poison]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +10 levels (2 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Water]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Ground]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Fire]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Wind]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> +1 level (00 turns)</t>
     </r>
   </si>
@@ -1165,18 +1021,12 @@
   <si>
     <t>REMOVE?</t>
   </si>
-  <si>
-    <t>reduce</t>
-  </si>
-  <si>
-    <t>Sort de switch les etats elementaired'une cible</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,15 +1120,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,13 +1228,8 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1586,40 +1424,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,12 +1530,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,9 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,13 +1825,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="17" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2359,18 +2159,18 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="132" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2383,13 +2183,13 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,55 +2225,55 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="34" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="34" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="13" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2343,7 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -2558,16 +2358,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -2577,13 +2377,13 @@
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -2593,7 +2393,7 @@
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="30" t="s">
         <v>30</v>
@@ -2609,7 +2409,7 @@
       </c>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="21" t="s">
         <v>44</v>
@@ -2625,250 +2425,167 @@
       </c>
       <c r="F5" s="33"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="36">
-        <v>5</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="B6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
+      <c r="B7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5</v>
+      <c r="B8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="37">
+        <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
+      <c r="B13" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="28">
+        <v>50</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="25" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="28">
-        <v>50</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="26">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="B15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="23">
         <v>20</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="33"/>
+      <c r="E15" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,1450 +2624,1338 @@
   <sheetData>
     <row r="1" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="112" t="s">
+      <c r="E1" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>125</v>
+      <c r="L1" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="Q1" s="1"/>
-      <c r="S1" s="132" t="s">
-        <v>145</v>
+      <c r="S1" s="129" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
       <c r="Q2" s="1"/>
-      <c r="S2" s="133" t="s">
-        <v>144</v>
+      <c r="S2" s="130" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="82">
         <v>10</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121">
-        <v>1</v>
-      </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121">
-        <v>1</v>
-      </c>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121">
-        <v>1</v>
-      </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121">
+      <c r="E3" s="82"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118">
+        <v>1</v>
+      </c>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118">
+        <v>1</v>
+      </c>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118">
+        <v>1</v>
+      </c>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118">
         <v>1</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="S3" s="134" t="s">
-        <v>143</v>
+      <c r="S3" s="131" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
-      <c r="B4" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="66">
         <v>10</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122">
-        <v>1</v>
-      </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122">
-        <v>1</v>
-      </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119">
+        <v>1</v>
+      </c>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119">
+        <v>1</v>
+      </c>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
-      <c r="B5" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="68">
-        <v>1</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122">
-        <v>1</v>
-      </c>
-      <c r="P5" s="122"/>
+      <c r="B5" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="66">
+        <v>1</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="107"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119">
+        <v>1</v>
+      </c>
+      <c r="P5" s="119"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="73">
-        <v>1</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
+      <c r="D6" s="71">
+        <v>1</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
       <c r="Q6" s="1"/>
-      <c r="S6" s="138" t="s">
-        <v>198</v>
+      <c r="S6" s="134" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="125"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="122"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="82">
         <v>10</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121">
-        <v>1</v>
-      </c>
-      <c r="I9" s="121">
-        <v>1</v>
-      </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121">
-        <v>1</v>
-      </c>
-      <c r="O9" s="121">
-        <v>1</v>
-      </c>
-      <c r="P9" s="121"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118">
+        <v>1</v>
+      </c>
+      <c r="I9" s="118">
+        <v>1</v>
+      </c>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118">
+        <v>1</v>
+      </c>
+      <c r="O9" s="118">
+        <v>1</v>
+      </c>
+      <c r="P9" s="118"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="74">
         <v>10</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122">
-        <v>1</v>
-      </c>
-      <c r="K10" s="122">
-        <v>1</v>
-      </c>
-      <c r="L10" s="122">
-        <v>1</v>
-      </c>
-      <c r="M10" s="122">
-        <v>1</v>
-      </c>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119">
+        <v>1</v>
+      </c>
+      <c r="K10" s="119">
+        <v>1</v>
+      </c>
+      <c r="L10" s="119">
+        <v>1</v>
+      </c>
+      <c r="M10" s="119">
+        <v>1</v>
+      </c>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="100" t="s">
+      <c r="B11" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="101">
-        <v>1</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127">
-        <v>1</v>
-      </c>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127">
+      <c r="D11" s="99">
+        <v>1</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="107"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124">
+        <v>1</v>
+      </c>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124">
         <v>2</v>
       </c>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127">
-        <v>1</v>
-      </c>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127">
+      <c r="M11" s="124"/>
+      <c r="N11" s="124">
+        <v>1</v>
+      </c>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124">
         <v>2</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
-      <c r="B12" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="104">
-        <v>1</v>
-      </c>
-      <c r="E12" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127">
+      <c r="B12" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="102">
+        <v>1</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="107"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124">
         <v>1</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
-      <c r="B13" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="107">
-        <v>1</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127">
-        <v>1</v>
-      </c>
-      <c r="P13" s="127"/>
+      <c r="B13" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="105">
+        <v>1</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="107"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124">
+        <v>1</v>
+      </c>
+      <c r="P13" s="124"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="122"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="82">
         <v>10</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121">
-        <v>1</v>
-      </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118">
+        <v>1</v>
+      </c>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
       <c r="Q16" s="1"/>
-      <c r="S16" s="138" t="s">
-        <v>198</v>
+      <c r="S16" s="134" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="77">
         <v>100</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122">
-        <v>1</v>
-      </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122">
-        <v>1</v>
-      </c>
-      <c r="L17" s="122">
-        <v>1</v>
-      </c>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122">
-        <v>1</v>
-      </c>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119">
+        <v>1</v>
+      </c>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119">
+        <v>1</v>
+      </c>
+      <c r="L17" s="119">
+        <v>1</v>
+      </c>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119">
+        <v>1</v>
+      </c>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="125"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="122"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="86">
         <v>100</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121">
-        <v>1</v>
-      </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121">
+      <c r="E20" s="86"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118">
+        <v>1</v>
+      </c>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118">
         <v>2</v>
       </c>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121">
-        <v>1</v>
-      </c>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118">
+        <v>1</v>
+      </c>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
-      <c r="B21" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="68">
+      <c r="B21" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="66">
         <v>100</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122">
-        <v>1</v>
-      </c>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119">
+        <v>1</v>
+      </c>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119">
+        <v>1</v>
+      </c>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
       <c r="Q21" s="1"/>
-      <c r="S21" s="138" t="s">
-        <v>198</v>
+      <c r="S21" s="134" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
-      <c r="B22" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="76">
-        <v>1</v>
-      </c>
-      <c r="E22" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="109"/>
-      <c r="G22" s="122">
-        <v>1</v>
-      </c>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122">
-        <v>1</v>
-      </c>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
+      <c r="B22" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="74">
+        <v>1</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="107"/>
+      <c r="G22" s="119">
+        <v>1</v>
+      </c>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119">
+        <v>1</v>
+      </c>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
       <c r="Q22" s="1"/>
-      <c r="S22" s="138" t="s">
-        <v>198</v>
+      <c r="S22" s="134" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
-      <c r="B23" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="104">
-        <v>1</v>
-      </c>
-      <c r="E23" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="109"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127">
-        <v>1</v>
-      </c>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127">
+      <c r="B23" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="102">
+        <v>1</v>
+      </c>
+      <c r="E23" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="107"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124">
+        <v>1</v>
+      </c>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124">
         <v>2</v>
       </c>
-      <c r="P23" s="127"/>
+      <c r="P23" s="124"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
-      <c r="B24" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="76">
-        <v>1</v>
-      </c>
-      <c r="E24" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122">
-        <v>1</v>
-      </c>
-      <c r="M24" s="122">
-        <v>1</v>
-      </c>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
+      <c r="B24" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="74">
+        <v>1</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="107"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119">
+        <v>1</v>
+      </c>
+      <c r="M24" s="119">
+        <v>1</v>
+      </c>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
-      <c r="B25" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="73">
-        <v>1</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="109"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122">
+      <c r="B25" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="71">
+        <v>1</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="107"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119">
         <v>1</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="125"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="122"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="88">
-        <v>1</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121">
-        <v>1</v>
-      </c>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121">
-        <v>1</v>
-      </c>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121">
-        <v>1</v>
-      </c>
-      <c r="P28" s="121"/>
+      <c r="D28" s="86">
+        <v>1</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="107"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118">
+        <v>1</v>
+      </c>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118">
+        <v>1</v>
+      </c>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118">
+        <v>1</v>
+      </c>
+      <c r="P28" s="118"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
-      <c r="B29" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="91">
-        <v>1</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="109"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121">
-        <v>1</v>
-      </c>
-      <c r="P29" s="121">
+      <c r="B29" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="89">
+        <v>1</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="107"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118">
+        <v>1</v>
+      </c>
+      <c r="P29" s="118">
         <v>1</v>
       </c>
       <c r="Q29" s="1"/>
+      <c r="S29" s="133" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
-      <c r="B30" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="92">
-        <v>1</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="109"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
+      <c r="B30" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="90">
+        <v>1</v>
+      </c>
+      <c r="E30" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="107"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
       <c r="Q30" s="1"/>
-      <c r="S30" s="138" t="s">
-        <v>199</v>
+      <c r="S30" s="133" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="92">
+      <c r="D31" s="90">
         <v>100</v>
       </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121">
-        <v>1</v>
-      </c>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121">
-        <v>1</v>
-      </c>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118">
+        <v>1</v>
+      </c>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="118">
+        <v>1</v>
+      </c>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
-      <c r="B32" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="70" t="s">
+      <c r="B32" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="68">
+      <c r="D32" s="66">
         <v>100</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="122">
+      <c r="E32" s="67"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="119">
         <v>2</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122">
-        <v>1</v>
-      </c>
-      <c r="J32" s="122">
-        <v>1</v>
-      </c>
-      <c r="K32" s="122">
-        <v>1</v>
-      </c>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122">
-        <v>1</v>
-      </c>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119">
+        <v>1</v>
+      </c>
+      <c r="J32" s="119">
+        <v>1</v>
+      </c>
+      <c r="K32" s="119"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="119">
+        <v>1</v>
+      </c>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
       <c r="Q32" s="1"/>
-      <c r="S32" s="137" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="90">
+        <v>3</v>
+      </c>
+      <c r="E33" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="68">
-        <v>100</v>
-      </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118">
+        <v>1</v>
+      </c>
+      <c r="J33" s="118">
+        <v>2</v>
+      </c>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
       <c r="Q33" s="1"/>
-      <c r="S33" s="136" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="34" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
-      <c r="B34" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="76">
+      <c r="B34" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="116">
+        <v>1</v>
+      </c>
+      <c r="E34" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="107"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124">
+        <v>1</v>
+      </c>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="124"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="124"/>
+      <c r="P34" s="124"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="95">
         <v>100</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="1"/>
-      <c r="S34" s="136" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="104">
-        <v>50</v>
-      </c>
-      <c r="E35" s="104"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127">
-        <v>1</v>
-      </c>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
+      <c r="E35" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="107"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118">
+        <v>1</v>
+      </c>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
       <c r="Q35" s="1"/>
-      <c r="S35" s="136" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S35" s="134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="92">
-        <v>3</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="109"/>
-      <c r="G36" s="121"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="121"/>
-      <c r="I36" s="121">
-        <v>1</v>
-      </c>
-      <c r="J36" s="121">
-        <v>2</v>
-      </c>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
       <c r="K36" s="121"/>
       <c r="L36" s="121"/>
       <c r="M36" s="121"/>
       <c r="N36" s="121"/>
       <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
+      <c r="P36" s="122"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
-      <c r="B37" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="119">
-        <v>1</v>
-      </c>
-      <c r="E37" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="109"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127">
-        <v>1</v>
-      </c>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
-      <c r="B38" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="97">
+      <c r="B38" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="86">
         <v>100</v>
       </c>
-      <c r="E38" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121">
-        <v>1</v>
-      </c>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118">
+        <v>1</v>
+      </c>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118">
+        <v>1</v>
+      </c>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118">
+        <v>1</v>
+      </c>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="125"/>
+      <c r="B39" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="74">
+        <v>100</v>
+      </c>
+      <c r="E39" s="74"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="119">
+        <v>1</v>
+      </c>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119">
+        <v>1</v>
+      </c>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
       <c r="Q39" s="1"/>
+      <c r="S39" s="134" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
+      <c r="B40" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="90">
+        <v>100</v>
+      </c>
+      <c r="E40" s="90"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118">
+        <v>2</v>
+      </c>
+      <c r="O40" s="118"/>
+      <c r="P40" s="118"/>
       <c r="Q40" s="1"/>
+      <c r="S40" s="134" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
-      <c r="B41" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="88">
+      <c r="B41" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="90">
         <v>100</v>
       </c>
-      <c r="E41" s="88"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121">
-        <v>1</v>
-      </c>
-      <c r="K41" s="121"/>
-      <c r="L41" s="121">
-        <v>1</v>
-      </c>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121">
-        <v>1</v>
-      </c>
-      <c r="O41" s="121"/>
-      <c r="P41" s="121"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118">
+        <v>1</v>
+      </c>
+      <c r="O41" s="118"/>
+      <c r="P41" s="118"/>
       <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S41" s="134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
-      <c r="B42" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="76">
+      <c r="B42" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="90">
         <v>100</v>
       </c>
-      <c r="E42" s="76"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="122">
-        <v>1</v>
-      </c>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122">
-        <v>1</v>
-      </c>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="118">
+        <v>1</v>
+      </c>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="118"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="118"/>
+      <c r="N42" s="118">
+        <v>1</v>
+      </c>
+      <c r="O42" s="118"/>
+      <c r="P42" s="118"/>
       <c r="Q42" s="1"/>
-      <c r="S42" s="138" t="s">
-        <v>199</v>
+      <c r="S42" s="134" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
-      <c r="B43" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="92">
-        <v>100</v>
-      </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121">
-        <v>2</v>
-      </c>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
+      <c r="B43" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="96">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="90"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="118">
+        <v>1</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="118"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
       <c r="Q43" s="1"/>
-      <c r="S43" s="138" t="s">
-        <v>199</v>
+      <c r="S43" s="134" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
-      <c r="B44" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="92">
-        <v>100</v>
-      </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121">
-        <v>1</v>
-      </c>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
+      <c r="B44" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="79">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="66"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="119">
+        <v>1</v>
+      </c>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119">
+        <v>1</v>
+      </c>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="119"/>
       <c r="Q44" s="1"/>
-      <c r="S44" s="138" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="45" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
-      <c r="B45" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="92">
+      <c r="B45" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="74">
         <v>100</v>
       </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="121">
-        <v>1</v>
-      </c>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="121">
-        <v>1</v>
-      </c>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119">
+        <v>2</v>
+      </c>
+      <c r="I45" s="119">
+        <v>4</v>
+      </c>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119">
+        <v>2</v>
+      </c>
+      <c r="P45" s="119"/>
       <c r="Q45" s="1"/>
-      <c r="S45" s="138" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="98">
-        <v>1000</v>
-      </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="121">
-        <v>1</v>
-      </c>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="121"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="121"/>
-      <c r="N46" s="121"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="121"/>
+    </row>
+    <row r="46" spans="1:19" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="S46" s="138" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="81">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="68"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="122">
-        <v>1</v>
-      </c>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122">
-        <v>1</v>
-      </c>
-      <c r="J47" s="122"/>
-      <c r="K47" s="122"/>
-      <c r="L47" s="122"/>
-      <c r="M47" s="122"/>
-      <c r="N47" s="122"/>
-      <c r="O47" s="122"/>
-      <c r="P47" s="122"/>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="76">
-        <v>100</v>
-      </c>
-      <c r="E48" s="76"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122">
-        <v>2</v>
-      </c>
-      <c r="I48" s="122">
-        <v>4</v>
-      </c>
-      <c r="J48" s="122"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="122"/>
-      <c r="M48" s="122"/>
-      <c r="N48" s="122"/>
-      <c r="O48" s="122">
-        <v>2</v>
-      </c>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="73">
-        <v>100</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="111"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="122">
-        <v>1</v>
-      </c>
-      <c r="M49" s="122"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="122"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,182 +3982,182 @@
     <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C9" s="5">
         <f>-C16</f>
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,12 +4429,12 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Summon" sheetId="7" r:id="rId5"/>
     <sheet name="Class Statistic" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
   <si>
     <t>STATS</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Can't loose HP                                                                                                        (Can't be unbuffed)</t>
   </si>
   <si>
-    <t>[[Can't summon playable summoning]]                                               (Can't be unbuffed)</t>
-  </si>
-  <si>
     <t>Elementalist</t>
   </si>
   <si>
@@ -239,46 +236,7 @@
     <t>[[Reduce Max HP by 1% initial Max HP]]    ( * effect levels )</t>
   </si>
   <si>
-    <t>[[Imbolc]]</t>
-  </si>
-  <si>
     <t>Druid</t>
-  </si>
-  <si>
-    <t>[[Beltane]]</t>
-  </si>
-  <si>
-    <t>[[Lugnasa]]</t>
-  </si>
-  <si>
-    <t>[[Reduce all buff by 3 turns]] (1 turn) (Next turn)                                                     Self and allies: [[Heal: 15% HP]] (1 turns) (Next turn)                                            (Area of effect: Square of 1 cell radius around)                                                                 (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Armor]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 25 levels (2 turns) (Next turn)                                           (Area of effect: Square of 1 cell radius around)                                                                 (Can't be unbuffed)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Heal 50% HP]] (Next turn)                                                                            (Area of effect: All the map)                                                                                                   (Can't be unbuffed)</t>
   </si>
   <si>
     <t>Specialy Shown</t>
@@ -383,12 +341,6 @@
     </r>
   </si>
   <si>
-    <t>[[Cut]]</t>
-  </si>
-  <si>
-    <t>Increase the damage taken by the ''Katana'' skill.</t>
-  </si>
-  <si>
     <t>[[Melee]]</t>
   </si>
   <si>
@@ -425,21 +377,6 @@
     <t>[[Preparation]]</t>
   </si>
   <si>
-    <t>[[Invulnerable (Melee)]]</t>
-  </si>
-  <si>
-    <t>Can't loose HP by melee damage.                                                                                                        (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>Can't loose HP by ranged damage.                                                                                                        (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>[[Invulnerable (Range)]]</t>
-  </si>
-  <si>
     <t>[[Vampire Mark]]</t>
   </si>
   <si>
@@ -455,18 +392,6 @@
     <t>End turn automatically.                                                                     (Can't be unbuffed)</t>
   </si>
   <si>
-    <t>[[Aura of Terror]]</t>
-  </si>
-  <si>
-    <t>Push adjacent entities by 1 cell.                                                            (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Red Moon]]</t>
-  </si>
-  <si>
-    <t>All skills damage steal life, they steal ratio increase by 100%                                                                                     (Can't be unbuffed)</t>
-  </si>
-  <si>
     <t>Cyborg</t>
   </si>
   <si>
@@ -476,18 +401,6 @@
     <t>Allow the usage of some Cyborg skills                                                         (Can't be unbuffed)</t>
   </si>
   <si>
-    <t>[[Self-Destruction Countdown]]</t>
-  </si>
-  <si>
-    <t>When effect is removed, entity K/O.                                                                      (Can't be unbuffed)</t>
-  </si>
-  <si>
-    <t>[[Checkpoint]]</t>
-  </si>
-  <si>
-    <t>Save the position when gaining this effect.                                              Teleport to the saved position at the end of the turn and remove the ''Checkpoint Glyph''                                                                     If can't be teleported: [[Damage: 100 light]]</t>
-  </si>
-  <si>
     <t>[[Increase ranged final damage by 1%]]    ( * effect levels )</t>
   </si>
   <si>
@@ -527,9 +440,6 @@
     <t>Class # of effect Note:</t>
   </si>
   <si>
-    <t>note: more axed damage,protection etc</t>
-  </si>
-  <si>
     <t>weakness: what is the class weakness</t>
   </si>
   <si>
@@ -563,148 +473,10 @@
     <t>Makibishi</t>
   </si>
   <si>
-    <t>Poisoned Makibishi</t>
-  </si>
-  <si>
     <t>[[Damage:  25 ground ]]</t>
   </si>
   <si>
-    <t>Water Pillar</t>
-  </si>
-  <si>
     <t>Passive</t>
-  </si>
-  <si>
-    <t>Ground Pillar</t>
-  </si>
-  <si>
-    <t>Fire Pillar</t>
-  </si>
-  <si>
-    <t>Wind Pillar</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[[Damage:  25 ground ]]                                                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Poison]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +10 levels (2 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Water]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Ground]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Fire]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[[Wind]]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
   </si>
   <si>
     <t>Magic Barrier</t>
@@ -941,6 +713,60 @@
     </r>
   </si>
   <si>
+    <t>Force Field</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>Just a visual indication.</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Fire resistance by %</t>
+  </si>
+  <si>
+    <t>Water resistance by %</t>
+  </si>
+  <si>
+    <t>Wind resistance by %</t>
+  </si>
+  <si>
+    <t>Ground resistance by %</t>
+  </si>
+  <si>
+    <t>Initial Max HP</t>
+  </si>
+  <si>
+    <t>Light damage</t>
+  </si>
+  <si>
+    <t>Dark damage</t>
+  </si>
+  <si>
+    <t>Light resistance by %</t>
+  </si>
+  <si>
+    <t>Dark resistance by %</t>
+  </si>
+  <si>
+    <t>Reflecting damage by %</t>
+  </si>
+  <si>
+    <t>Melee final Damage by %</t>
+  </si>
+  <si>
+    <t>Ranged final Damage by %</t>
+  </si>
+  <si>
+    <t>note: more axed damage, protection, booster etc</t>
+  </si>
+  <si>
+    <t>[[Can't summon]]                                                                                   (Can't be unbuffed)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -961,72 +787,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (While in the area)</t>
+      <t xml:space="preserve"> (While in the area)                                Entities can't enter or exit the glyph.</t>
     </r>
-  </si>
-  <si>
-    <t>Force Field</t>
-  </si>
-  <si>
-    <t>Checkpoint</t>
-  </si>
-  <si>
-    <t>Just a visual indication.</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Fire resistance by %</t>
-  </si>
-  <si>
-    <t>Water resistance by %</t>
-  </si>
-  <si>
-    <t>Wind resistance by %</t>
-  </si>
-  <si>
-    <t>Ground resistance by %</t>
-  </si>
-  <si>
-    <t>Initial Max HP</t>
-  </si>
-  <si>
-    <t>Light damage</t>
-  </si>
-  <si>
-    <t>Dark damage</t>
-  </si>
-  <si>
-    <t>Light resistance by %</t>
-  </si>
-  <si>
-    <t>Dark resistance by %</t>
-  </si>
-  <si>
-    <t>Reflecting damage by %</t>
-  </si>
-  <si>
-    <t>Melee final Damage by %</t>
-  </si>
-  <si>
-    <t>Ranged final Damage by %</t>
-  </si>
-  <si>
-    <t>Add more</t>
-  </si>
-  <si>
-    <t>add more</t>
-  </si>
-  <si>
-    <t>REMOVE?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,22 +875,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,16 +973,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1425,12 +1170,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,9 +1218,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,9 +1227,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,21 +1237,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1530,15 +1258,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1686,13 +1405,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1732,15 +1445,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,12 +1528,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2159,18 +1859,18 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="119" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2183,13 +1883,13 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,56 +1924,56 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="34" t="s">
-        <v>173</v>
+      <c r="B16" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="34" t="s">
-        <v>175</v>
+      <c r="B22" s="29" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="13" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2367,15 +2067,15 @@
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2383,209 +2083,127 @@
         <v>8</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="32">
-        <v>1</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="37">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="24">
+        <v>50</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="28">
-        <v>50</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="B10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="21">
         <v>20</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="33"/>
+      <c r="E10" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2594,7 +2212,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
@@ -2624,1338 +2242,1159 @@
   <sheetData>
     <row r="1" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="109" t="s">
+      <c r="E1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>108</v>
+      <c r="K1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="Q1" s="1"/>
-      <c r="S1" s="129" t="s">
-        <v>127</v>
+      <c r="S1" s="116" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
       <c r="Q2" s="1"/>
-      <c r="S2" s="130" t="s">
-        <v>126</v>
+      <c r="S2" s="117" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="74">
         <v>10</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118">
-        <v>1</v>
-      </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118">
-        <v>1</v>
-      </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118">
-        <v>1</v>
-      </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118">
+      <c r="E3" s="74"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105">
+        <v>1</v>
+      </c>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105">
+        <v>1</v>
+      </c>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105">
+        <v>1</v>
+      </c>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105">
         <v>1</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="S3" s="131" t="s">
-        <v>125</v>
+      <c r="S3" s="118" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="65" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="58">
         <v>10</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119">
-        <v>1</v>
-      </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119">
-        <v>1</v>
-      </c>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106">
+        <v>1</v>
+      </c>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106">
+        <v>1</v>
+      </c>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="66">
-        <v>1</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119">
-        <v>1</v>
-      </c>
-      <c r="P5" s="119"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="58">
+        <v>1</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106">
+        <v>1</v>
+      </c>
+      <c r="P5" s="106"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="69" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="71">
-        <v>1</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
+      <c r="C6" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="63">
+        <v>1</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106">
+        <v>1</v>
+      </c>
+      <c r="P6" s="106"/>
       <c r="Q6" s="1"/>
-      <c r="S6" s="134" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="7" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="122"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="109"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="74">
         <v>10</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118">
-        <v>1</v>
-      </c>
-      <c r="I9" s="118">
-        <v>1</v>
-      </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118">
-        <v>1</v>
-      </c>
-      <c r="O9" s="118">
-        <v>1</v>
-      </c>
-      <c r="P9" s="118"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105">
+        <v>1</v>
+      </c>
+      <c r="I9" s="105">
+        <v>1</v>
+      </c>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105">
+        <v>1</v>
+      </c>
+      <c r="O9" s="105">
+        <v>1</v>
+      </c>
+      <c r="P9" s="105"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="66">
         <v>10</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119">
-        <v>1</v>
-      </c>
-      <c r="K10" s="119">
-        <v>1</v>
-      </c>
-      <c r="L10" s="119">
-        <v>1</v>
-      </c>
-      <c r="M10" s="119">
-        <v>1</v>
-      </c>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106">
+        <v>1</v>
+      </c>
+      <c r="K10" s="106">
+        <v>1</v>
+      </c>
+      <c r="L10" s="106">
+        <v>1</v>
+      </c>
+      <c r="M10" s="106">
+        <v>1</v>
+      </c>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="98" t="s">
+      <c r="B11" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="99">
-        <v>1</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124">
-        <v>1</v>
-      </c>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124">
+      <c r="D11" s="89">
+        <v>1</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="94"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111">
+        <v>1</v>
+      </c>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111">
         <v>2</v>
       </c>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124">
-        <v>1</v>
-      </c>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124">
+      <c r="M11" s="111"/>
+      <c r="N11" s="111">
+        <v>1</v>
+      </c>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111">
         <v>2</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="102">
-        <v>1</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="105">
-        <v>1</v>
-      </c>
-      <c r="E13" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124">
-        <v>1</v>
-      </c>
-      <c r="P13" s="124"/>
+    <row r="13" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="122"/>
+    <row r="14" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="74">
+        <v>10</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105">
+        <v>1</v>
+      </c>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="69">
+        <v>100</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106">
+        <v>1</v>
+      </c>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106">
+        <v>1</v>
+      </c>
+      <c r="L15" s="106">
+        <v>1</v>
+      </c>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106">
+        <v>1</v>
+      </c>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="82">
-        <v>10</v>
-      </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118">
-        <v>1</v>
-      </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
       <c r="Q16" s="1"/>
-      <c r="S16" s="134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="77">
+    </row>
+    <row r="17" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="78">
         <v>100</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119">
-        <v>1</v>
-      </c>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119">
-        <v>1</v>
-      </c>
-      <c r="L17" s="119">
-        <v>1</v>
-      </c>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119">
-        <v>1</v>
-      </c>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="122"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105">
+        <v>1</v>
+      </c>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105">
+        <v>2</v>
+      </c>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105">
+        <v>1</v>
+      </c>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
+    <row r="19" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="58">
+        <v>100</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106">
+        <v>1</v>
+      </c>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106">
+        <v>1</v>
+      </c>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="86">
+    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="66">
+        <v>1</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="94"/>
+      <c r="G20" s="106">
+        <v>1</v>
+      </c>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106">
+        <v>1</v>
+      </c>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="92">
+        <v>1</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="94"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111">
+        <v>1</v>
+      </c>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111">
+        <v>2</v>
+      </c>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="66">
+        <v>1</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="94"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106">
+        <v>1</v>
+      </c>
+      <c r="M22" s="106">
+        <v>1</v>
+      </c>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118">
-        <v>1</v>
-      </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118">
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="78">
+        <v>1</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="94"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105">
+        <v>1</v>
+      </c>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105">
+        <v>1</v>
+      </c>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105">
+        <v>1</v>
+      </c>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="80">
+        <v>100</v>
+      </c>
+      <c r="E26" s="80"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105">
+        <v>1</v>
+      </c>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105">
+        <v>1</v>
+      </c>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="58">
+        <v>100</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="106">
         <v>2</v>
       </c>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118">
-        <v>1</v>
-      </c>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="66">
+      <c r="H27" s="106"/>
+      <c r="I27" s="106">
+        <v>1</v>
+      </c>
+      <c r="J27" s="106">
+        <v>1</v>
+      </c>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106">
+        <v>1</v>
+      </c>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="80">
+        <v>3</v>
+      </c>
+      <c r="E28" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="94"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105">
+        <v>1</v>
+      </c>
+      <c r="J28" s="105">
+        <v>2</v>
+      </c>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="103">
+        <v>1</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="94"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111">
+        <v>1</v>
+      </c>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="85">
         <v>100</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119">
-        <v>1</v>
-      </c>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119">
-        <v>1</v>
-      </c>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="1"/>
-      <c r="S21" s="134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="74">
-        <v>1</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="107"/>
-      <c r="G22" s="119">
-        <v>1</v>
-      </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119">
-        <v>1</v>
-      </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="1"/>
-      <c r="S22" s="134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="102">
-        <v>1</v>
-      </c>
-      <c r="E23" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124">
-        <v>1</v>
-      </c>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124">
+      <c r="E30" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="94"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105">
+        <v>1</v>
+      </c>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="78">
+        <v>100</v>
+      </c>
+      <c r="E33" s="78"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105">
+        <v>1</v>
+      </c>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105">
+        <v>1</v>
+      </c>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105">
+        <v>1</v>
+      </c>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="66">
+        <v>100</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="106">
+        <v>1</v>
+      </c>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106">
+        <v>1</v>
+      </c>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="80">
+        <v>100</v>
+      </c>
+      <c r="E35" s="80"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105">
         <v>2</v>
       </c>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="74">
-        <v>1</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119">
-        <v>1</v>
-      </c>
-      <c r="M24" s="119">
-        <v>1</v>
-      </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="70" t="s">
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="80">
+        <v>100</v>
+      </c>
+      <c r="E36" s="79"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105">
+        <v>1</v>
+      </c>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="80">
+        <v>100</v>
+      </c>
+      <c r="E37" s="80"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="105">
+        <v>1</v>
+      </c>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105">
+        <v>1</v>
+      </c>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="86">
+        <v>1000</v>
+      </c>
+      <c r="E38" s="80"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="105">
+        <v>1</v>
+      </c>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="71">
-        <v>1</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="107"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="86">
-        <v>1</v>
-      </c>
-      <c r="E28" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="107"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118">
-        <v>1</v>
-      </c>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118">
-        <v>1</v>
-      </c>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118">
-        <v>1</v>
-      </c>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="89">
-        <v>1</v>
-      </c>
-      <c r="E29" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="107"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118">
-        <v>1</v>
-      </c>
-      <c r="P29" s="118">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="S29" s="133" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="90">
-        <v>1</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="1"/>
-      <c r="S30" s="133" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="90">
+      <c r="C39" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="106">
+        <v>1</v>
+      </c>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106">
+        <v>1</v>
+      </c>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="66">
         <v>100</v>
       </c>
-      <c r="E31" s="90"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118">
-        <v>1</v>
-      </c>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118">
-        <v>1</v>
-      </c>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="66">
-        <v>100</v>
-      </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="119">
+      <c r="E40" s="66"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106">
         <v>2</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119">
-        <v>1</v>
-      </c>
-      <c r="J32" s="119">
-        <v>1</v>
-      </c>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119">
-        <v>1</v>
-      </c>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="90">
-        <v>3</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="107"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118">
-        <v>1</v>
-      </c>
-      <c r="J33" s="118">
+      <c r="I40" s="106">
+        <v>4</v>
+      </c>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106">
         <v>2</v>
       </c>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="115" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="116">
-        <v>1</v>
-      </c>
-      <c r="E34" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="107"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124">
-        <v>1</v>
-      </c>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="124"/>
-      <c r="O34" s="124"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="95">
-        <v>100</v>
-      </c>
-      <c r="E35" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="107"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118">
-        <v>1</v>
-      </c>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="1"/>
-      <c r="S35" s="134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="86">
-        <v>100</v>
-      </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118">
-        <v>1</v>
-      </c>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118">
-        <v>1</v>
-      </c>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118">
-        <v>1</v>
-      </c>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="74">
-        <v>100</v>
-      </c>
-      <c r="E39" s="74"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="119">
-        <v>1</v>
-      </c>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119">
-        <v>1</v>
-      </c>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="1"/>
-      <c r="S39" s="134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="90">
-        <v>100</v>
-      </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118">
-        <v>2</v>
-      </c>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
+      <c r="P40" s="106"/>
       <c r="Q40" s="1"/>
-      <c r="S40" s="134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="90">
-        <v>100</v>
-      </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118">
-        <v>1</v>
-      </c>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
+    </row>
+    <row r="41" spans="1:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="S41" s="134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="90">
-        <v>100</v>
-      </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="118">
-        <v>1</v>
-      </c>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118">
-        <v>1</v>
-      </c>
-      <c r="O42" s="118"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="1"/>
-      <c r="S42" s="134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="96">
-        <v>1000</v>
-      </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="118">
-        <v>1</v>
-      </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="1"/>
-      <c r="S43" s="134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="79">
-        <v>1000</v>
-      </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="119">
-        <v>1</v>
-      </c>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119">
-        <v>1</v>
-      </c>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="119"/>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="74">
-        <v>100</v>
-      </c>
-      <c r="E45" s="74"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119">
-        <v>2</v>
-      </c>
-      <c r="I45" s="119">
-        <v>4</v>
-      </c>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119">
-        <v>2</v>
-      </c>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:19" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3965,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3982,183 +3421,153 @@
     <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="C4" s="5">
+        <f>-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="12" t="s">
-        <v>145</v>
+      <c r="B7" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="5">
-        <f>-C16</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>166</v>
-      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -4364,41 +3773,11 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4422,19 +3801,19 @@
   <dimension ref="B4:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -14,7 +14,7 @@
     <sheet name="Summon" sheetId="7" r:id="rId5"/>
     <sheet name="Class Statistic" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -876,7 +876,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +973,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1173,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,6 +1534,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2027,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,9 +2051,10 @@
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -2061,7 +2072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="14" t="s">
         <v>6</v>
@@ -2076,8 +2087,9 @@
         <v>5</v>
       </c>
       <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="120"/>
+    </row>
+    <row r="3" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="12" t="s">
         <v>8</v>
@@ -2092,8 +2104,9 @@
         <v>5</v>
       </c>
       <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="120"/>
+    </row>
+    <row r="4" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="25" t="s">
         <v>30</v>
@@ -2109,7 +2122,7 @@
       </c>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="19" t="s">
         <v>44</v>
@@ -2125,7 +2138,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="19" t="s">
         <v>62</v>
@@ -2141,7 +2154,7 @@
       </c>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="11" t="s">
         <v>74</v>
@@ -2157,7 +2170,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="12" t="s">
         <v>75</v>
@@ -2173,7 +2186,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="30" t="s">
         <v>85</v>
@@ -2189,7 +2202,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>91</v>
@@ -2214,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2716,7 @@
       <c r="P16" s="109"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41" t="s">
@@ -2726,7 +2739,7 @@
       <c r="P17" s="113"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="76" t="s">
         <v>17</v>
@@ -2756,8 +2769,9 @@
       <c r="O18" s="105"/>
       <c r="P18" s="105"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="121"/>
+    </row>
+    <row r="19" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="56" t="s">
         <v>66</v>
@@ -2786,7 +2800,7 @@
       <c r="P19" s="106"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="64" t="s">
         <v>68</v>
@@ -2816,8 +2830,9 @@
       <c r="O20" s="106"/>
       <c r="P20" s="106"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="121"/>
+    </row>
+    <row r="21" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="90" t="s">
         <v>64</v>
@@ -2848,7 +2863,7 @@
       <c r="P21" s="111"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="64" t="s">
         <v>65</v>
@@ -2879,7 +2894,7 @@
       <c r="P22" s="106"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="52"/>
       <c r="C23" s="53"/>
@@ -2898,7 +2913,7 @@
       <c r="P23" s="109"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="44"/>
       <c r="C24" s="45" t="s">
@@ -2921,7 +2936,7 @@
       <c r="P24" s="114"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="76" t="s">
         <v>48</v>
@@ -2954,7 +2969,7 @@
       <c r="P25" s="105"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="81" t="s">
         <v>21</v>
@@ -2983,7 +2998,7 @@
       <c r="P26" s="105"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="56" t="s">
         <v>109</v>
@@ -3015,8 +3030,9 @@
       <c r="O27" s="106"/>
       <c r="P27" s="106"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="121"/>
+    </row>
+    <row r="28" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="81" t="s">
         <v>46</v>
@@ -3047,7 +3063,7 @@
       <c r="P28" s="105"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="101" t="s">
         <v>42</v>
@@ -3076,7 +3092,7 @@
       <c r="P29" s="111"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="83" t="s">
         <v>49</v>
@@ -3105,7 +3121,7 @@
       <c r="P30" s="105"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="52"/>
       <c r="C31" s="53"/>
@@ -3124,7 +3140,7 @@
       <c r="P31" s="109"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="48"/>
       <c r="C32" s="49" t="s">

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -2227,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,7 +3163,7 @@
       <c r="P32" s="115"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="76" t="s">
         <v>110</v>
@@ -3194,7 +3194,7 @@
       <c r="P33" s="105"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
       <c r="B34" s="70" t="s">
         <v>111</v>
@@ -3223,7 +3223,7 @@
       <c r="P34" s="106"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="81" t="s">
         <v>81</v>
@@ -3250,7 +3250,7 @@
       <c r="P35" s="105"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
       <c r="B36" s="81" t="s">
         <v>82</v>
@@ -3277,7 +3277,7 @@
       <c r="P36" s="105"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
       <c r="B37" s="81" t="s">
         <v>84</v>
@@ -3305,8 +3305,9 @@
       <c r="O37" s="105"/>
       <c r="P37" s="105"/>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="121"/>
+    </row>
+    <row r="38" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="81" t="s">
         <v>23</v>
@@ -3332,8 +3333,9 @@
       <c r="O38" s="105"/>
       <c r="P38" s="105"/>
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="121"/>
+    </row>
+    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="56" t="s">
         <v>112</v>
@@ -3362,7 +3364,7 @@
       <c r="P39" s="106"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
       <c r="B40" s="64" t="s">
         <v>31</v>
@@ -3393,7 +3395,7 @@
       <c r="P40" s="106"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>

--- a/GameDesign/Stats_and_Effect_List.xlsx
+++ b/GameDesign/Stats_and_Effect_List.xlsx
@@ -2227,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,6 +3222,7 @@
       <c r="O34" s="106"/>
       <c r="P34" s="106"/>
       <c r="Q34" s="1"/>
+      <c r="R34" s="121"/>
     </row>
     <row r="35" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
@@ -3363,6 +3364,7 @@
       <c r="O39" s="106"/>
       <c r="P39" s="106"/>
       <c r="Q39" s="1"/>
+      <c r="R39" s="121"/>
     </row>
     <row r="40" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
